--- a/cd/7-Koordinatat-e-pikave-për-parcelë-2171-0-Tahir-Shehu.xlsx
+++ b/cd/7-Koordinatat-e-pikave-për-parcelë-2171-0-Tahir-Shehu.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="dorzim" sheetId="1" r:id="rId1"/>
     <sheet name="src" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">dorzim!$A$1:$J$51</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="115">
   <si>
     <t>Nr</t>
   </si>
@@ -143,6 +144,246 @@
   </si>
   <si>
     <t>Pikat zyrtare 2181-1</t>
+  </si>
+  <si>
+    <t>4687290.023 7512107.339</t>
+  </si>
+  <si>
+    <t>4687331.331 7512122.279</t>
+  </si>
+  <si>
+    <t>4687349.57 7512129.829</t>
+  </si>
+  <si>
+    <t>4687358.36 7512132.449</t>
+  </si>
+  <si>
+    <t>4687361.559 7512136.449</t>
+  </si>
+  <si>
+    <t>4687364.759 7512145.759</t>
+  </si>
+  <si>
+    <t>4687368.739 7512152.799</t>
+  </si>
+  <si>
+    <t>4687376.218 7512170.739</t>
+  </si>
+  <si>
+    <t>4687385.528 7512188.899</t>
+  </si>
+  <si>
+    <t>4687394.437 7512208.739</t>
+  </si>
+  <si>
+    <t>4687403.216 7512223.009</t>
+  </si>
+  <si>
+    <t>4687414.235 7512233.739</t>
+  </si>
+  <si>
+    <t>4687423.385 7512245.389</t>
+  </si>
+  <si>
+    <t>4687435.154 7512260.119</t>
+  </si>
+  <si>
+    <t>4687450.803 7512282.029</t>
+  </si>
+  <si>
+    <t>4687481.141 7512295.709</t>
+  </si>
+  <si>
+    <t>4687507.96 7512295.909</t>
+  </si>
+  <si>
+    <t>4687512.31 7512296.709</t>
+  </si>
+  <si>
+    <t>4687515.01 7512296.629</t>
+  </si>
+  <si>
+    <t>4687518.1 7512310.769</t>
+  </si>
+  <si>
+    <t>4687534.009 7512325.73</t>
+  </si>
+  <si>
+    <t>4687551.498 7512350.171</t>
+  </si>
+  <si>
+    <t>4687542.927 7512316.079</t>
+  </si>
+  <si>
+    <t>4687529.299 7512305.925</t>
+  </si>
+  <si>
+    <t>4687502.688 7512301.587</t>
+  </si>
+  <si>
+    <t>4687492.345 7512284.349</t>
+  </si>
+  <si>
+    <t>4687463.922 7512258.843</t>
+  </si>
+  <si>
+    <t>4687429.217 7512245.989</t>
+  </si>
+  <si>
+    <t>4687417.244 7512235.519</t>
+  </si>
+  <si>
+    <t>4687409.955 7512217.474</t>
+  </si>
+  <si>
+    <t>4687396.952 7512187.186</t>
+  </si>
+  <si>
+    <t>4687381.178 7512167.509</t>
+  </si>
+  <si>
+    <t>4687370.028 7512137.987</t>
+  </si>
+  <si>
+    <t>4687349.836 7512122.919</t>
+  </si>
+  <si>
+    <t>4687332.281 7512114.579</t>
+  </si>
+  <si>
+    <t>4687309.652 7512108.559</t>
+  </si>
+  <si>
+    <t>4687301.252 7512093.608</t>
+  </si>
+  <si>
+    <t>4687265.114 7512079.108</t>
+  </si>
+  <si>
+    <t>4687204.856 7512073.978</t>
+  </si>
+  <si>
+    <t>4687194.706 7512065.637</t>
+  </si>
+  <si>
+    <t>4687179.177 7512064.497</t>
+  </si>
+  <si>
+    <t>4687169.817 7512026.507</t>
+  </si>
+  <si>
+    <t>4687131.83 7512003.927</t>
+  </si>
+  <si>
+    <t>4687118.711 7512001.988</t>
+  </si>
+  <si>
+    <t>4687122.741 7511977.258</t>
+  </si>
+  <si>
+    <t>4687118.981 7511955.448</t>
+  </si>
+  <si>
+    <t>4687114.982 7511920.179</t>
+  </si>
+  <si>
+    <t>4687106.763 7511887.349</t>
+  </si>
+  <si>
+    <t>4687100.835 7511864.639</t>
+  </si>
+  <si>
+    <t>4687091.945 7511847.399</t>
+  </si>
+  <si>
+    <t>4687087.036 7511826.05</t>
+  </si>
+  <si>
+    <t>4687076.977 7511812.58</t>
+  </si>
+  <si>
+    <t>4687070.128 7511814.13</t>
+  </si>
+  <si>
+    <t>4687077.377 7511824.18</t>
+  </si>
+  <si>
+    <t>4687081.717 7511846.45</t>
+  </si>
+  <si>
+    <t>4687093.606 7511867.099</t>
+  </si>
+  <si>
+    <t>4687101.125 7511885.599</t>
+  </si>
+  <si>
+    <t>4687109.704 7511915.149</t>
+  </si>
+  <si>
+    <t>4687115.073 7511943.439</t>
+  </si>
+  <si>
+    <t>4687125.502 7511965.448</t>
+  </si>
+  <si>
+    <t>4687132.921 7511995.378</t>
+  </si>
+  <si>
+    <t>4687133.18 7512009.178</t>
+  </si>
+  <si>
+    <t>4687140.14 7512032.688</t>
+  </si>
+  <si>
+    <t>4687158.059 7512045.698</t>
+  </si>
+  <si>
+    <t>4687172.548 7512058.598</t>
+  </si>
+  <si>
+    <t>4687190.707 7512065.438</t>
+  </si>
+  <si>
+    <t>4687210.896 7512068.939</t>
+  </si>
+  <si>
+    <t>4687222.934 7512075.358</t>
+  </si>
+  <si>
+    <t>4687245.015 7512082.889</t>
+  </si>
+  <si>
+    <t>4687271.954 7512091.709</t>
+  </si>
+  <si>
+    <t>2171-0</t>
+  </si>
+  <si>
+    <t>2172-0</t>
+  </si>
+  <si>
+    <t>2173-1</t>
+  </si>
+  <si>
+    <t>Gjendja e vjetër</t>
+  </si>
+  <si>
+    <t>Gjendja e re</t>
+  </si>
+  <si>
+    <t>Diferenca</t>
+  </si>
+  <si>
+    <t>Toleranca</t>
+  </si>
+  <si>
+    <t>2181-1</t>
+  </si>
+  <si>
+    <t>2180-0</t>
+  </si>
+  <si>
+    <t>2183-6</t>
   </si>
 </sst>
 </file>
@@ -153,7 +394,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +464,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="CascadiaCode Nerd Font"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -523,7 +770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -575,7 +822,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -593,6 +839,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -769,6 +1018,9 @@
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2408,10 +2660,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Y77"/>
+  <dimension ref="B2:AB77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71:E77"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2421,12 +2673,14 @@
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B2" s="84" t="s">
         <v>29</v>
       </c>
@@ -2460,8 +2714,8 @@
       </c>
       <c r="Y2" s="86"/>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -2470,7 +2724,7 @@
       <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -2520,7 +2774,7 @@
       <c r="X3" s="10"/>
       <c r="Y3" s="11"/>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B4" s="9">
         <v>30685</v>
       </c>
@@ -2550,7 +2804,7 @@
       <c r="X4" s="10"/>
       <c r="Y4" s="11"/>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>30686</v>
       </c>
@@ -2580,7 +2834,7 @@
       <c r="X5" s="10"/>
       <c r="Y5" s="11"/>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <v>31137</v>
       </c>
@@ -2610,7 +2864,7 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="11"/>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <v>31138</v>
       </c>
@@ -2640,7 +2894,7 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="11"/>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <v>31139</v>
       </c>
@@ -2677,7 +2931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <v>31140</v>
       </c>
@@ -2703,7 +2957,7 @@
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <v>31149</v>
       </c>
@@ -2730,7 +2984,7 @@
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
         <v>31150</v>
       </c>
@@ -2756,8 +3010,18 @@
       <c r="S11" s="12"/>
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="W11" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="X11" s="84"/>
+      <c r="Y11" s="84"/>
+      <c r="Z11" s="84" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA11" s="84"/>
+      <c r="AB11" s="84"/>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>32210</v>
       </c>
@@ -2777,41 +3041,91 @@
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
+      <c r="W12" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="X12" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y12" s="86"/>
+      <c r="Z12" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA12" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB12" s="86"/>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B13" s="22"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
       <c r="O13" s="4"/>
-    </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="W13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="X13" s="10">
+        <v>2421</v>
+      </c>
+      <c r="Y13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA13" s="10">
+        <v>2431.9810000000002</v>
+      </c>
+      <c r="AB13" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B14" s="84" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="84"/>
       <c r="D14" s="84"/>
       <c r="E14" s="84"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
       <c r="O14" s="4"/>
-    </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="27" t="s">
+      <c r="W14" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X14" s="10">
+        <v>2171</v>
+      </c>
+      <c r="Y14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z14" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA14" s="10">
+        <v>2199.4490000000001</v>
+      </c>
+      <c r="AB14" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B15" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -2820,20 +3134,38 @@
       <c r="D15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
       <c r="O15" s="4"/>
-    </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="W15" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X15" s="10">
+        <v>1500</v>
+      </c>
+      <c r="Y15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z15" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA15" s="10">
+        <v>1500.0830000000001</v>
+      </c>
+      <c r="AB15" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <v>30686</v>
       </c>
@@ -2844,17 +3176,37 @@
         <v>4687417.2439999999</v>
       </c>
       <c r="E16" s="13"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
       <c r="O16" s="4"/>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W16" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="X16" s="17">
+        <f>SUM(X13:X15)</f>
+        <v>6092</v>
+      </c>
+      <c r="Y16" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z16" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA16" s="17">
+        <f>SUM(AA13:AA15)</f>
+        <v>6131.5130000000008</v>
+      </c>
+      <c r="AB16" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
         <v>30687</v>
       </c>
@@ -2865,16 +3217,26 @@
         <v>4687409.9550000001</v>
       </c>
       <c r="E17" s="13"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="W17" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="X17" s="84"/>
+      <c r="Y17" s="84"/>
+      <c r="Z17" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA17" s="84"/>
+      <c r="AB17" s="84"/>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>31148</v>
       </c>
@@ -2885,16 +3247,33 @@
         <v>4687361.2019999996</v>
       </c>
       <c r="E18" s="13"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24">
+        <v>3000</v>
+      </c>
+      <c r="K18" s="24">
+        <v>2943.97</v>
+      </c>
+      <c r="L18" s="25"/>
       <c r="V18" s="20"/>
-      <c r="W18" s="21"/>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W18" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="X18" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y18" s="86"/>
+      <c r="Z18" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA18" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB18" s="86"/>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
         <v>31149</v>
       </c>
@@ -2905,16 +3284,38 @@
         <v>4687377.3020000001</v>
       </c>
       <c r="E19" s="13"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24">
+        <f>J18-K18</f>
+        <v>56.0300000000002</v>
+      </c>
+      <c r="L19" s="25"/>
       <c r="V19" s="20"/>
-      <c r="W19" s="21"/>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W19" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="X19" s="10">
+        <f>AA13-X13</f>
+        <v>10.981000000000222</v>
+      </c>
+      <c r="Y19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z19" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA19" s="10">
+        <f>SQRT(X13)</f>
+        <v>49.203658400570177</v>
+      </c>
+      <c r="AB19" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <v>31165</v>
       </c>
@@ -2925,16 +3326,37 @@
         <v>4687386.8339999998</v>
       </c>
       <c r="E20" s="13"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="26"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24">
+        <v>36.17</v>
+      </c>
+      <c r="L20" s="25"/>
       <c r="V20" s="20"/>
-      <c r="W20" s="21"/>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W20" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X20" s="10">
+        <f>AA14-X14</f>
+        <v>28.449000000000069</v>
+      </c>
+      <c r="Y20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z20" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA20" s="10">
+        <f>SQRT(X14)</f>
+        <v>46.593991028886975</v>
+      </c>
+      <c r="AB20" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
         <v>31166</v>
       </c>
@@ -2945,16 +3367,38 @@
         <v>4687372.4330000002</v>
       </c>
       <c r="E21" s="13"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="26"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24">
+        <f>K19/K20</f>
+        <v>1.5490738180812882</v>
+      </c>
+      <c r="L21" s="25"/>
       <c r="V21" s="20"/>
-      <c r="W21" s="21"/>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W21" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X21" s="10">
+        <f>AA15-X15</f>
+        <v>8.3000000000083674E-2</v>
+      </c>
+      <c r="Y21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z21" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA21" s="10">
+        <f>SQRT(X15)</f>
+        <v>38.729833462074168</v>
+      </c>
+      <c r="AB21" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
         <v>32210</v>
       </c>
@@ -2965,14 +3409,34 @@
         <v>4687396.4230000004</v>
       </c>
       <c r="E22" s="13"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="26"/>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25"/>
+      <c r="W22" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="X22" s="17">
+        <f>SUM(X19:X21)</f>
+        <v>39.513000000000375</v>
+      </c>
+      <c r="Y22" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z22" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA22" s="17">
+        <f>SUM(AA19:AA21)</f>
+        <v>134.52748289153132</v>
+      </c>
+      <c r="AB22" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B23" s="9">
         <v>46938</v>
       </c>
@@ -2983,14 +3447,14 @@
         <v>4687392.517</v>
       </c>
       <c r="E23" s="13"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="26"/>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="25"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
         <v>47024</v>
       </c>
@@ -3001,37 +3465,73 @@
         <v>4687370.5279999999</v>
       </c>
       <c r="E24" s="13"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="26"/>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="G25" s="22"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="26"/>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="G24" s="21"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="G25" s="21"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="L25" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="P25" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="W25" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="X25" s="84"/>
+      <c r="Y25" s="84"/>
+      <c r="Z25" s="84" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA25" s="84"/>
+      <c r="AB25" s="84"/>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B26" s="84" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="84"/>
       <c r="D26" s="84"/>
       <c r="E26" s="84"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="26"/>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B27" s="27" t="s">
+      <c r="G26" s="21"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="25"/>
+      <c r="P26" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="W26" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="X26" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y26" s="86"/>
+      <c r="Z26" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA26" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB26" s="86"/>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B27" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -3040,17 +3540,38 @@
       <c r="D27" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="26"/>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="G27" s="21"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="25"/>
+      <c r="P27" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="W27" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="X27" s="10">
+        <v>1916</v>
+      </c>
+      <c r="Y27" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z27" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA27" s="10">
+        <v>1929.1030000000001</v>
+      </c>
+      <c r="AB27" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B28" s="9">
         <v>31136</v>
       </c>
@@ -3061,8 +3582,26 @@
         <v>4687394.07</v>
       </c>
       <c r="E28" s="13"/>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W28" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="X28" s="10">
+        <v>276</v>
+      </c>
+      <c r="Y28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z28" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA28" s="10">
+        <v>276.19099999999997</v>
+      </c>
+      <c r="AB28" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B29" s="9">
         <v>31137</v>
       </c>
@@ -3073,8 +3612,26 @@
         <v>4687397.1509999996</v>
       </c>
       <c r="E29" s="13"/>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W29" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X29" s="10">
+        <v>1794</v>
+      </c>
+      <c r="Y29" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z29" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA29" s="10">
+        <v>1794.386</v>
+      </c>
+      <c r="AB29" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B30" s="9">
         <v>31147</v>
       </c>
@@ -3085,8 +3642,28 @@
         <v>4687353.7810000004</v>
       </c>
       <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W30" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="X30" s="17">
+        <f>SUM(X27:X29)</f>
+        <v>3986</v>
+      </c>
+      <c r="Y30" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z30" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA30" s="17">
+        <f>SUM(AA27:AA29)</f>
+        <v>3999.68</v>
+      </c>
+      <c r="AB30" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B31" s="9">
         <v>31148</v>
       </c>
@@ -3097,8 +3674,18 @@
         <v>4687361.2019999996</v>
       </c>
       <c r="E31" s="13"/>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W31" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="X31" s="84"/>
+      <c r="Y31" s="84"/>
+      <c r="Z31" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA31" s="84"/>
+      <c r="AB31" s="84"/>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32" s="9">
         <v>31149</v>
       </c>
@@ -3109,8 +3696,22 @@
         <v>4687377.3020000001</v>
       </c>
       <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="W32" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="X32" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y32" s="86"/>
+      <c r="Z32" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA32" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB32" s="86"/>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B33" s="9">
         <v>31150</v>
       </c>
@@ -3121,8 +3722,28 @@
         <v>4687387.2410000004</v>
       </c>
       <c r="E33" s="13"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="W33" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="X33" s="10">
+        <f>AA27-X27</f>
+        <v>13.103000000000065</v>
+      </c>
+      <c r="Y33" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z33" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA33" s="10">
+        <f>SQRT(X27)</f>
+        <v>43.77213725647858</v>
+      </c>
+      <c r="AB33" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B34" s="9">
         <v>47023</v>
       </c>
@@ -3133,8 +3754,28 @@
         <v>4687355.4929999998</v>
       </c>
       <c r="E34" s="13"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="W34" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="X34" s="10">
+        <f>AA28-X28</f>
+        <v>0.19099999999997408</v>
+      </c>
+      <c r="Y34" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z34" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA34" s="10">
+        <f>SQRT(X28)</f>
+        <v>16.61324772583615</v>
+      </c>
+      <c r="AB34" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B35" s="9">
         <v>47127</v>
       </c>
@@ -3145,8 +3786,28 @@
         <v>4687392.9840000002</v>
       </c>
       <c r="E35" s="13"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="W35" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X35" s="10">
+        <f>AA29-X29</f>
+        <v>0.38599999999996726</v>
+      </c>
+      <c r="Y35" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z35" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA35" s="10">
+        <f>SQRT(X29)</f>
+        <v>42.355637169094742</v>
+      </c>
+      <c r="AB35" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B36" s="9">
         <v>47128</v>
       </c>
@@ -3157,8 +3818,28 @@
         <v>4687353.8159999996</v>
       </c>
       <c r="E36" s="13"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="W36" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="X36" s="17">
+        <f>SUM(X33:X35)</f>
+        <v>13.680000000000007</v>
+      </c>
+      <c r="Y36" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z36" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA36" s="17">
+        <f>SUM(AA33:AA35)</f>
+        <v>102.74102215140948</v>
+      </c>
+      <c r="AB36" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B38" s="84" t="s">
         <v>32</v>
       </c>
@@ -3166,8 +3847,8 @@
       <c r="D38" s="84"/>
       <c r="E38" s="84"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="27" t="s">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B39" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -3176,11 +3857,11 @@
       <c r="D39" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B40" s="9">
         <v>31179</v>
       </c>
@@ -3192,7 +3873,7 @@
       </c>
       <c r="E40" s="13"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B41" s="9">
         <v>31180</v>
       </c>
@@ -3204,7 +3885,7 @@
       </c>
       <c r="E41" s="13"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B42" s="9">
         <v>31203</v>
       </c>
@@ -3216,7 +3897,7 @@
       </c>
       <c r="E42" s="13"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B43" s="9">
         <v>31204</v>
       </c>
@@ -3228,7 +3909,7 @@
       </c>
       <c r="E43" s="13"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B44" s="9">
         <v>31205</v>
       </c>
@@ -3240,7 +3921,7 @@
       </c>
       <c r="E44" s="13"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B45" s="9">
         <v>31212</v>
       </c>
@@ -3252,7 +3933,7 @@
       </c>
       <c r="E45" s="13"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B46" s="9">
         <v>31213</v>
       </c>
@@ -3264,7 +3945,7 @@
       </c>
       <c r="E46" s="13"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B47" s="9">
         <v>32124</v>
       </c>
@@ -3276,7 +3957,7 @@
       </c>
       <c r="E47" s="13"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B48" s="9">
         <v>32125</v>
       </c>
@@ -3297,7 +3978,7 @@
       <c r="E50" s="84"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C51" s="7" t="s">
@@ -3511,7 +4192,7 @@
       <c r="E69" s="84"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="27" t="s">
+      <c r="B70" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C70" s="7" t="s">
@@ -3609,21 +4290,838 @@
       <c r="E77" s="13"/>
     </row>
   </sheetData>
-  <sortState ref="O26:O30">
-    <sortCondition ref="O26"/>
+  <sortState ref="P25:P27">
+    <sortCondition ref="P25"/>
   </sortState>
-  <mergeCells count="9">
+  <mergeCells count="25">
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="Z17:AB17"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="B50:E50"/>
     <mergeCell ref="B69:E69"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="W31:Y31"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:N2"/>
     <mergeCell ref="P2:U2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="B14:E14"/>
+    <mergeCell ref="W11:Y11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E4:BX76"/>
+  <sheetViews>
+    <sheetView topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="BM19" sqref="BM19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="5:76" x14ac:dyDescent="0.25">
+      <c r="E4" s="88">
+        <v>7512091.7089999998</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" t="s">
+        <v>50</v>
+      </c>
+      <c r="V4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>88</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>90</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>91</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>92</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>96</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>99</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>100</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>101</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BX4">
+        <v>4687290.023</v>
+      </c>
+    </row>
+    <row r="6" spans="5:76" x14ac:dyDescent="0.25">
+      <c r="BC6" s="88">
+        <v>7512091.7089999998</v>
+      </c>
+      <c r="BD6">
+        <v>4687290.023</v>
+      </c>
+    </row>
+    <row r="7" spans="5:76" x14ac:dyDescent="0.25">
+      <c r="BC7">
+        <v>7512107.3389999997</v>
+      </c>
+      <c r="BD7">
+        <v>4687331.3310000002</v>
+      </c>
+    </row>
+    <row r="8" spans="5:76" x14ac:dyDescent="0.25">
+      <c r="BC8">
+        <v>7512122.2790000001</v>
+      </c>
+      <c r="BD8">
+        <v>4687349.57</v>
+      </c>
+    </row>
+    <row r="9" spans="5:76" x14ac:dyDescent="0.25">
+      <c r="BC9">
+        <v>7512129.8289999999</v>
+      </c>
+      <c r="BD9">
+        <v>4687358.3600000003</v>
+      </c>
+    </row>
+    <row r="10" spans="5:76" x14ac:dyDescent="0.25">
+      <c r="BC10">
+        <v>7512132.449</v>
+      </c>
+      <c r="BD10">
+        <v>4687361.5590000004</v>
+      </c>
+    </row>
+    <row r="11" spans="5:76" x14ac:dyDescent="0.25">
+      <c r="BC11">
+        <v>7512136.449</v>
+      </c>
+      <c r="BD11">
+        <v>4687364.7589999996</v>
+      </c>
+    </row>
+    <row r="12" spans="5:76" x14ac:dyDescent="0.25">
+      <c r="BC12">
+        <v>7512145.7589999996</v>
+      </c>
+      <c r="BD12">
+        <v>4687368.7390000001</v>
+      </c>
+    </row>
+    <row r="13" spans="5:76" x14ac:dyDescent="0.25">
+      <c r="BC13">
+        <v>7512152.7989999996</v>
+      </c>
+      <c r="BD13">
+        <v>4687376.2180000003</v>
+      </c>
+    </row>
+    <row r="14" spans="5:76" x14ac:dyDescent="0.25">
+      <c r="BC14">
+        <v>7512170.7390000001</v>
+      </c>
+      <c r="BD14">
+        <v>4687385.5279999999</v>
+      </c>
+    </row>
+    <row r="15" spans="5:76" x14ac:dyDescent="0.25">
+      <c r="BC15">
+        <v>7512188.8990000002</v>
+      </c>
+      <c r="BD15">
+        <v>4687394.4369999999</v>
+      </c>
+    </row>
+    <row r="16" spans="5:76" x14ac:dyDescent="0.25">
+      <c r="BC16">
+        <v>7512208.7390000001</v>
+      </c>
+      <c r="BD16">
+        <v>4687403.216</v>
+      </c>
+    </row>
+    <row r="17" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC17">
+        <v>7512223.0089999996</v>
+      </c>
+      <c r="BD17">
+        <v>4687414.2350000003</v>
+      </c>
+    </row>
+    <row r="18" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC18">
+        <v>7512233.7390000001</v>
+      </c>
+      <c r="BD18">
+        <v>4687423.3849999998</v>
+      </c>
+    </row>
+    <row r="19" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC19">
+        <v>7512245.3890000004</v>
+      </c>
+      <c r="BD19">
+        <v>4687435.1540000001</v>
+      </c>
+    </row>
+    <row r="20" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC20">
+        <v>7512260.1189999999</v>
+      </c>
+      <c r="BD20">
+        <v>4687450.8030000003</v>
+      </c>
+    </row>
+    <row r="21" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC21">
+        <v>7512282.0290000001</v>
+      </c>
+      <c r="BD21">
+        <v>4687481.1409999998</v>
+      </c>
+    </row>
+    <row r="22" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC22">
+        <v>7512295.7089999998</v>
+      </c>
+      <c r="BD22">
+        <v>4687507.96</v>
+      </c>
+    </row>
+    <row r="23" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC23">
+        <v>7512295.909</v>
+      </c>
+      <c r="BD23">
+        <v>4687512.3099999996</v>
+      </c>
+    </row>
+    <row r="24" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC24">
+        <v>7512296.7089999998</v>
+      </c>
+      <c r="BD24">
+        <v>4687515.01</v>
+      </c>
+    </row>
+    <row r="25" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC25">
+        <v>7512296.6289999997</v>
+      </c>
+      <c r="BD25">
+        <v>4687518.0999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC26">
+        <v>7512310.7690000003</v>
+      </c>
+      <c r="BD26">
+        <v>4687534.0089999996</v>
+      </c>
+    </row>
+    <row r="27" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC27">
+        <v>7512325.7300000004</v>
+      </c>
+      <c r="BD27">
+        <v>4687551.4979999997</v>
+      </c>
+    </row>
+    <row r="28" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC28">
+        <v>7512350.1710000001</v>
+      </c>
+      <c r="BD28">
+        <v>4687542.9270000001</v>
+      </c>
+    </row>
+    <row r="29" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC29">
+        <v>7512316.0789999999</v>
+      </c>
+      <c r="BD29">
+        <v>4687529.2989999996</v>
+      </c>
+    </row>
+    <row r="30" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC30">
+        <v>7512305.9249999998</v>
+      </c>
+      <c r="BD30">
+        <v>4687502.6880000001</v>
+      </c>
+    </row>
+    <row r="31" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC31">
+        <v>7512301.5870000003</v>
+      </c>
+      <c r="BD31">
+        <v>4687492.3449999997</v>
+      </c>
+    </row>
+    <row r="32" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC32">
+        <v>7512284.3490000004</v>
+      </c>
+      <c r="BD32">
+        <v>4687463.9220000003</v>
+      </c>
+    </row>
+    <row r="33" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC33">
+        <v>7512258.8430000003</v>
+      </c>
+      <c r="BD33">
+        <v>4687429.2170000002</v>
+      </c>
+    </row>
+    <row r="34" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC34">
+        <v>7512245.9890000001</v>
+      </c>
+      <c r="BD34">
+        <v>4687417.2439999999</v>
+      </c>
+    </row>
+    <row r="35" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC35">
+        <v>7512235.5190000003</v>
+      </c>
+      <c r="BD35">
+        <v>4687409.9550000001</v>
+      </c>
+    </row>
+    <row r="36" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC36">
+        <v>7512217.4740000004</v>
+      </c>
+      <c r="BD36">
+        <v>4687396.9519999996</v>
+      </c>
+    </row>
+    <row r="37" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC37">
+        <v>7512187.1859999998</v>
+      </c>
+      <c r="BD37">
+        <v>4687381.1780000003</v>
+      </c>
+    </row>
+    <row r="38" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC38">
+        <v>7512167.5089999996</v>
+      </c>
+      <c r="BD38">
+        <v>4687370.0279999999</v>
+      </c>
+    </row>
+    <row r="39" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC39">
+        <v>7512137.9869999997</v>
+      </c>
+      <c r="BD39">
+        <v>4687349.8360000001</v>
+      </c>
+    </row>
+    <row r="40" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC40">
+        <v>7512122.9189999998</v>
+      </c>
+      <c r="BD40">
+        <v>4687332.2810000004</v>
+      </c>
+    </row>
+    <row r="41" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC41">
+        <v>7512114.5789999999</v>
+      </c>
+      <c r="BD41">
+        <v>4687309.6519999998</v>
+      </c>
+    </row>
+    <row r="42" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC42">
+        <v>7512108.5590000004</v>
+      </c>
+      <c r="BD42">
+        <v>4687301.2520000003</v>
+      </c>
+    </row>
+    <row r="43" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC43">
+        <v>7512093.608</v>
+      </c>
+      <c r="BD43">
+        <v>4687265.1140000001</v>
+      </c>
+    </row>
+    <row r="44" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC44">
+        <v>7512079.108</v>
+      </c>
+      <c r="BD44">
+        <v>4687204.8559999997</v>
+      </c>
+    </row>
+    <row r="45" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC45">
+        <v>7512073.9780000001</v>
+      </c>
+      <c r="BD45">
+        <v>4687194.7060000002</v>
+      </c>
+    </row>
+    <row r="46" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC46">
+        <v>7512065.6370000001</v>
+      </c>
+      <c r="BD46">
+        <v>4687179.1770000001</v>
+      </c>
+    </row>
+    <row r="47" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC47">
+        <v>7512064.4970000004</v>
+      </c>
+      <c r="BD47">
+        <v>4687169.8169999998</v>
+      </c>
+    </row>
+    <row r="48" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC48">
+        <v>7512026.5070000002</v>
+      </c>
+      <c r="BD48">
+        <v>4687131.83</v>
+      </c>
+    </row>
+    <row r="49" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC49">
+        <v>7512003.9270000001</v>
+      </c>
+      <c r="BD49">
+        <v>4687118.7110000001</v>
+      </c>
+    </row>
+    <row r="50" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC50">
+        <v>7512001.9879999999</v>
+      </c>
+      <c r="BD50">
+        <v>4687122.7410000004</v>
+      </c>
+    </row>
+    <row r="51" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC51">
+        <v>7511977.2580000004</v>
+      </c>
+      <c r="BD51">
+        <v>4687118.9809999997</v>
+      </c>
+    </row>
+    <row r="52" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC52">
+        <v>7511955.4479999999</v>
+      </c>
+      <c r="BD52">
+        <v>4687114.9819999998</v>
+      </c>
+    </row>
+    <row r="53" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC53">
+        <v>7511920.1789999995</v>
+      </c>
+      <c r="BD53">
+        <v>4687106.7630000003</v>
+      </c>
+    </row>
+    <row r="54" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC54">
+        <v>7511887.3490000004</v>
+      </c>
+      <c r="BD54">
+        <v>4687100.835</v>
+      </c>
+    </row>
+    <row r="55" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC55">
+        <v>7511864.6390000004</v>
+      </c>
+      <c r="BD55">
+        <v>4687091.9450000003</v>
+      </c>
+    </row>
+    <row r="56" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC56">
+        <v>7511847.3990000002</v>
+      </c>
+      <c r="BD56">
+        <v>4687087.0360000003</v>
+      </c>
+    </row>
+    <row r="57" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC57">
+        <v>7511826.0499999998</v>
+      </c>
+      <c r="BD57">
+        <v>4687076.977</v>
+      </c>
+    </row>
+    <row r="58" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC58">
+        <v>7511812.5800000001</v>
+      </c>
+      <c r="BD58">
+        <v>4687070.1279999996</v>
+      </c>
+    </row>
+    <row r="59" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC59">
+        <v>7511814.1299999999</v>
+      </c>
+      <c r="BD59">
+        <v>4687077.3770000003</v>
+      </c>
+    </row>
+    <row r="60" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC60">
+        <v>7511824.1799999997</v>
+      </c>
+      <c r="BD60">
+        <v>4687081.7170000002</v>
+      </c>
+    </row>
+    <row r="61" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC61">
+        <v>7511846.4500000002</v>
+      </c>
+      <c r="BD61">
+        <v>4687093.6059999997</v>
+      </c>
+    </row>
+    <row r="62" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC62">
+        <v>7511867.0990000004</v>
+      </c>
+      <c r="BD62">
+        <v>4687101.125</v>
+      </c>
+    </row>
+    <row r="63" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC63">
+        <v>7511885.5990000004</v>
+      </c>
+      <c r="BD63">
+        <v>4687109.7039999999</v>
+      </c>
+    </row>
+    <row r="64" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC64">
+        <v>7511915.1490000002</v>
+      </c>
+      <c r="BD64">
+        <v>4687115.0729999999</v>
+      </c>
+    </row>
+    <row r="65" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC65">
+        <v>7511943.4390000002</v>
+      </c>
+      <c r="BD65">
+        <v>4687125.5020000003</v>
+      </c>
+    </row>
+    <row r="66" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC66">
+        <v>7511965.4479999999</v>
+      </c>
+      <c r="BD66">
+        <v>4687132.9210000001</v>
+      </c>
+    </row>
+    <row r="67" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC67">
+        <v>7511995.3779999996</v>
+      </c>
+      <c r="BD67">
+        <v>4687133.18</v>
+      </c>
+    </row>
+    <row r="68" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC68">
+        <v>7512009.1780000003</v>
+      </c>
+      <c r="BD68">
+        <v>4687140.1399999997</v>
+      </c>
+    </row>
+    <row r="69" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC69">
+        <v>7512032.6880000001</v>
+      </c>
+      <c r="BD69">
+        <v>4687158.0590000004</v>
+      </c>
+    </row>
+    <row r="70" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC70">
+        <v>7512045.6979999999</v>
+      </c>
+      <c r="BD70">
+        <v>4687172.5480000004</v>
+      </c>
+    </row>
+    <row r="71" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC71">
+        <v>7512058.5980000002</v>
+      </c>
+      <c r="BD71">
+        <v>4687190.7070000004</v>
+      </c>
+    </row>
+    <row r="72" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC72">
+        <v>7512065.4380000001</v>
+      </c>
+      <c r="BD72">
+        <v>4687210.8959999997</v>
+      </c>
+    </row>
+    <row r="73" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC73">
+        <v>7512068.9390000002</v>
+      </c>
+      <c r="BD73">
+        <v>4687222.9340000004</v>
+      </c>
+    </row>
+    <row r="74" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC74">
+        <v>7512075.358</v>
+      </c>
+      <c r="BD74">
+        <v>4687245.0149999997</v>
+      </c>
+    </row>
+    <row r="75" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC75">
+        <v>7512082.8890000004</v>
+      </c>
+      <c r="BD75">
+        <v>4687271.9539999999</v>
+      </c>
+    </row>
+    <row r="76" spans="55:56" x14ac:dyDescent="0.25">
+      <c r="BC76">
+        <v>7512091.7089999998</v>
+      </c>
+      <c r="BD76">
+        <v>4687290.023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cd/7-Koordinatat-e-pikave-për-parcelë-2171-0-Tahir-Shehu.xlsx
+++ b/cd/7-Koordinatat-e-pikave-për-parcelë-2171-0-Tahir-Shehu.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="200">
   <si>
     <t>Nr</t>
   </si>
@@ -384,6 +384,261 @@
   </si>
   <si>
     <t>2183-6</t>
+  </si>
+  <si>
+    <t>47049_stk</t>
+  </si>
+  <si>
+    <t>|47049</t>
+  </si>
+  <si>
+    <t>47048_stk</t>
+  </si>
+  <si>
+    <t>|47048</t>
+  </si>
+  <si>
+    <t>47047_stk</t>
+  </si>
+  <si>
+    <t>|47047</t>
+  </si>
+  <si>
+    <t>47046_stk</t>
+  </si>
+  <si>
+    <t>|47046</t>
+  </si>
+  <si>
+    <t>32116_stk</t>
+  </si>
+  <si>
+    <t>|32116</t>
+  </si>
+  <si>
+    <t>32117_stk</t>
+  </si>
+  <si>
+    <t>|32117</t>
+  </si>
+  <si>
+    <t>A32117</t>
+  </si>
+  <si>
+    <t>32118_stk</t>
+  </si>
+  <si>
+    <t>|32118</t>
+  </si>
+  <si>
+    <t>32119_stk</t>
+  </si>
+  <si>
+    <t>|32119</t>
+  </si>
+  <si>
+    <t>32120_stk</t>
+  </si>
+  <si>
+    <t>|32120</t>
+  </si>
+  <si>
+    <t>47045_stk</t>
+  </si>
+  <si>
+    <t>|47045</t>
+  </si>
+  <si>
+    <t>A47045</t>
+  </si>
+  <si>
+    <t>47062_stk</t>
+  </si>
+  <si>
+    <t>|47062</t>
+  </si>
+  <si>
+    <t>47044_stk</t>
+  </si>
+  <si>
+    <t>|47044</t>
+  </si>
+  <si>
+    <t>A32181</t>
+  </si>
+  <si>
+    <t>A32182</t>
+  </si>
+  <si>
+    <t>A32183</t>
+  </si>
+  <si>
+    <t>47061_stk</t>
+  </si>
+  <si>
+    <t>|47061</t>
+  </si>
+  <si>
+    <t>47060_stk</t>
+  </si>
+  <si>
+    <t>|47060</t>
+  </si>
+  <si>
+    <t>31203_stk</t>
+  </si>
+  <si>
+    <t>|31203</t>
+  </si>
+  <si>
+    <t>31204_stk</t>
+  </si>
+  <si>
+    <t>|31204</t>
+  </si>
+  <si>
+    <t>31205_stk</t>
+  </si>
+  <si>
+    <t>|31205</t>
+  </si>
+  <si>
+    <t>31179_stk</t>
+  </si>
+  <si>
+    <t>|31179</t>
+  </si>
+  <si>
+    <t>A31179</t>
+  </si>
+  <si>
+    <t>31180_stk</t>
+  </si>
+  <si>
+    <t>|31180</t>
+  </si>
+  <si>
+    <t>32116_stk1</t>
+  </si>
+  <si>
+    <t>32117_stk1</t>
+  </si>
+  <si>
+    <t>32118_stk1</t>
+  </si>
+  <si>
+    <t>47128_stk</t>
+  </si>
+  <si>
+    <t>|47128</t>
+  </si>
+  <si>
+    <t>31147_stk</t>
+  </si>
+  <si>
+    <t>|31147</t>
+  </si>
+  <si>
+    <t>47127_stk</t>
+  </si>
+  <si>
+    <t>|47127</t>
+  </si>
+  <si>
+    <t>31136_stk</t>
+  </si>
+  <si>
+    <t>|31136</t>
+  </si>
+  <si>
+    <t>A31137</t>
+  </si>
+  <si>
+    <t>31137_stk</t>
+  </si>
+  <si>
+    <t>|31137</t>
+  </si>
+  <si>
+    <t>1_stk</t>
+  </si>
+  <si>
+    <t>|1</t>
+  </si>
+  <si>
+    <t>1_2_stk</t>
+  </si>
+  <si>
+    <t>31138_stk</t>
+  </si>
+  <si>
+    <t>|31138</t>
+  </si>
+  <si>
+    <t>A31138</t>
+  </si>
+  <si>
+    <t>B31138</t>
+  </si>
+  <si>
+    <t>31139_stk</t>
+  </si>
+  <si>
+    <t>|31139</t>
+  </si>
+  <si>
+    <t>31140_stk</t>
+  </si>
+  <si>
+    <t>|31140</t>
+  </si>
+  <si>
+    <t>30685_stk</t>
+  </si>
+  <si>
+    <t>|30685</t>
+  </si>
+  <si>
+    <t>46938_stk</t>
+  </si>
+  <si>
+    <t>|46938</t>
+  </si>
+  <si>
+    <t>31165_stk</t>
+  </si>
+  <si>
+    <t>|31165</t>
+  </si>
+  <si>
+    <t>31166_stk</t>
+  </si>
+  <si>
+    <t>|31166</t>
+  </si>
+  <si>
+    <t>2_stk</t>
+  </si>
+  <si>
+    <t>|2</t>
+  </si>
+  <si>
+    <t>47024_stk</t>
+  </si>
+  <si>
+    <t>|47024</t>
+  </si>
+  <si>
+    <t>31148_stk</t>
+  </si>
+  <si>
+    <t>|31148</t>
+  </si>
+  <si>
+    <t>47023_stk</t>
+  </si>
+  <si>
+    <t>|47023</t>
   </si>
 </sst>
 </file>
@@ -770,7 +1025,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -938,6 +1193,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1010,18 +1271,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1701,115 +1957,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
     </row>
     <row r="2" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
     </row>
     <row r="4" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="63"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="70"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="69"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="73"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -2578,32 +2834,32 @@
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="78" t="s">
+      <c r="E50" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="F50" s="78"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="72" t="s">
+      <c r="F50" s="80"/>
+      <c r="G50" s="81"/>
+      <c r="H50" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="I50" s="73"/>
-      <c r="J50" s="76"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="78"/>
     </row>
     <row r="51" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="80" t="s">
+      <c r="A51" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="81"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="82">
+      <c r="B51" s="83"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="84">
         <v>152</v>
       </c>
-      <c r="F51" s="82"/>
-      <c r="G51" s="83"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="77"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="76"/>
+      <c r="I51" s="77"/>
+      <c r="J51" s="79"/>
     </row>
     <row r="52" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
@@ -2662,8 +2918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AB77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA28" sqref="AA28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2681,38 +2937,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="G2" s="84" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="G2" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="85" t="s">
+      <c r="P2" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
       <c r="W2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="86" t="s">
+      <c r="X2" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="Y2" s="86"/>
+      <c r="Y2" s="87"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
@@ -3010,16 +3266,16 @@
       <c r="S11" s="12"/>
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
-      <c r="W11" s="84" t="s">
+      <c r="W11" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="84"/>
-      <c r="Z11" s="84" t="s">
+      <c r="X11" s="86"/>
+      <c r="Y11" s="86"/>
+      <c r="Z11" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="AA11" s="84"/>
-      <c r="AB11" s="84"/>
+      <c r="AA11" s="86"/>
+      <c r="AB11" s="86"/>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
@@ -3044,17 +3300,17 @@
       <c r="W12" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="X12" s="86" t="s">
+      <c r="X12" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="Y12" s="86"/>
+      <c r="Y12" s="87"/>
       <c r="Z12" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AA12" s="86" t="s">
+      <c r="AA12" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="AB12" s="86"/>
+      <c r="AB12" s="87"/>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
@@ -3090,21 +3346,45 @@
       </c>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="4"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="G14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14">
+        <v>7512356.9550000001</v>
+      </c>
+      <c r="I14">
+        <v>4687195.5999999996</v>
+      </c>
+      <c r="J14">
+        <v>623.43899999999996</v>
+      </c>
+      <c r="K14" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14">
+        <v>0.159</v>
+      </c>
+      <c r="M14">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="N14" s="89">
+        <v>0.48387731481481483</v>
+      </c>
+      <c r="O14" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P14">
+        <v>4.3949999999999996</v>
+      </c>
+      <c r="Q14">
+        <v>4.7049E-4</v>
+      </c>
       <c r="W14" s="9" t="s">
         <v>106</v>
       </c>
@@ -3137,15 +3417,39 @@
       <c r="E15" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="4"/>
+      <c r="G15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15">
+        <v>7512359.7439999999</v>
+      </c>
+      <c r="I15">
+        <v>4687195.3269999996</v>
+      </c>
+      <c r="J15">
+        <v>623.55999999999995</v>
+      </c>
+      <c r="K15" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="M15">
+        <v>0.115</v>
+      </c>
+      <c r="N15" s="89">
+        <v>0.48474537037037035</v>
+      </c>
+      <c r="O15" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P15">
+        <v>3.1930000000000001</v>
+      </c>
+      <c r="Q15">
+        <v>4.7048000000000001E-4</v>
+      </c>
       <c r="W15" s="9" t="s">
         <v>107</v>
       </c>
@@ -3176,15 +3480,39 @@
         <v>4687417.2439999999</v>
       </c>
       <c r="E16" s="13"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="4"/>
+      <c r="G16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16">
+        <v>7512370.4019999998</v>
+      </c>
+      <c r="I16">
+        <v>4687194.95</v>
+      </c>
+      <c r="J16">
+        <v>624.95699999999999</v>
+      </c>
+      <c r="K16" t="s">
+        <v>120</v>
+      </c>
+      <c r="L16">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="M16">
+        <v>3.9E-2</v>
+      </c>
+      <c r="N16" s="89">
+        <v>0.48555555555555557</v>
+      </c>
+      <c r="O16" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P16">
+        <v>1.0109999999999999</v>
+      </c>
+      <c r="Q16">
+        <v>4.7047000000000001E-4</v>
+      </c>
       <c r="W16" s="26" t="s">
         <v>25</v>
       </c>
@@ -3217,24 +3545,49 @@
         <v>4687409.9550000001</v>
       </c>
       <c r="E17" s="13"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="W17" s="84" t="s">
+      <c r="G17" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17">
+        <v>7512377</v>
+      </c>
+      <c r="I17">
+        <v>4687194.7479999997</v>
+      </c>
+      <c r="J17">
+        <v>623.81799999999998</v>
+      </c>
+      <c r="K17" t="s">
+        <v>122</v>
+      </c>
+      <c r="L17">
+        <v>0.02</v>
+      </c>
+      <c r="M17">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="N17" s="89">
+        <v>0.48623842592592598</v>
+      </c>
+      <c r="O17" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P17">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="Q17">
+        <v>4.7046000000000002E-4</v>
+      </c>
+      <c r="W17" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="X17" s="84"/>
-      <c r="Y17" s="84"/>
-      <c r="Z17" s="84" t="s">
+      <c r="X17" s="86"/>
+      <c r="Y17" s="86"/>
+      <c r="Z17" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="AA17" s="84"/>
-      <c r="AB17" s="84"/>
+      <c r="AA17" s="86"/>
+      <c r="AB17" s="86"/>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
@@ -3247,31 +3600,54 @@
         <v>4687361.2019999996</v>
       </c>
       <c r="E18" s="13"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="24">
-        <v>3000</v>
-      </c>
-      <c r="K18" s="24">
-        <v>2943.97</v>
-      </c>
-      <c r="L18" s="25"/>
+      <c r="G18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18">
+        <v>7512385.2549999999</v>
+      </c>
+      <c r="I18">
+        <v>4687195.2769999998</v>
+      </c>
+      <c r="J18">
+        <v>623.59199999999998</v>
+      </c>
+      <c r="K18" t="s">
+        <v>124</v>
+      </c>
+      <c r="L18">
+        <v>0.126</v>
+      </c>
+      <c r="M18">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="N18" s="89">
+        <v>0.48716435185185186</v>
+      </c>
+      <c r="O18" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P18">
+        <v>6.0229999999999997</v>
+      </c>
+      <c r="Q18">
+        <v>3.2116000000000002E-4</v>
+      </c>
       <c r="V18" s="20"/>
       <c r="W18" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="X18" s="86" t="s">
+      <c r="X18" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="Y18" s="86"/>
+      <c r="Y18" s="87"/>
       <c r="Z18" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AA18" s="86" t="s">
+      <c r="AA18" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="AB18" s="86"/>
+      <c r="AB18" s="87"/>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
@@ -3284,15 +3660,36 @@
         <v>4687377.3020000001</v>
       </c>
       <c r="E19" s="13"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24">
-        <f>J18-K18</f>
-        <v>56.0300000000002</v>
-      </c>
-      <c r="L19" s="25"/>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>7512396.176</v>
+      </c>
+      <c r="I19">
+        <v>4687195.1969999997</v>
+      </c>
+      <c r="J19">
+        <v>623.029</v>
+      </c>
+      <c r="L19">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="M19">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="N19" s="89">
+        <v>0.48802083333333335</v>
+      </c>
+      <c r="O19" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P19">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
       <c r="V19" s="20"/>
       <c r="W19" s="9" t="s">
         <v>105</v>
@@ -3326,14 +3723,39 @@
         <v>4687386.8339999998</v>
       </c>
       <c r="E20" s="13"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24">
-        <v>36.17</v>
-      </c>
-      <c r="L20" s="25"/>
+      <c r="G20" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20">
+        <v>7512430.8080000002</v>
+      </c>
+      <c r="I20">
+        <v>4687198.665</v>
+      </c>
+      <c r="J20">
+        <v>621.36900000000003</v>
+      </c>
+      <c r="K20" t="s">
+        <v>126</v>
+      </c>
+      <c r="L20">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="M20">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="N20" s="89">
+        <v>0.4888657407407408</v>
+      </c>
+      <c r="O20" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P20">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="Q20">
+        <v>3.2117000000000002E-4</v>
+      </c>
       <c r="V20" s="20"/>
       <c r="W20" s="9" t="s">
         <v>106</v>
@@ -3367,15 +3789,36 @@
         <v>4687372.4330000002</v>
       </c>
       <c r="E21" s="13"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24">
-        <f>K19/K20</f>
-        <v>1.5490738180812882</v>
-      </c>
-      <c r="L21" s="25"/>
+      <c r="G21" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21">
+        <v>7512430.932</v>
+      </c>
+      <c r="I21">
+        <v>4687197.5269999998</v>
+      </c>
+      <c r="J21">
+        <v>621.32500000000005</v>
+      </c>
+      <c r="L21">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M21">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="N21" s="89">
+        <v>0.48959490740740735</v>
+      </c>
+      <c r="O21" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P21">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
       <c r="V21" s="20"/>
       <c r="W21" s="9" t="s">
         <v>107</v>
@@ -3409,12 +3852,39 @@
         <v>4687396.4230000004</v>
       </c>
       <c r="E22" s="13"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="25"/>
+      <c r="G22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22">
+        <v>7512460.0310000004</v>
+      </c>
+      <c r="I22">
+        <v>4687200.301</v>
+      </c>
+      <c r="J22">
+        <v>620.03499999999997</v>
+      </c>
+      <c r="K22" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="M22">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="N22" s="89">
+        <v>0.49056712962962962</v>
+      </c>
+      <c r="O22" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P22">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="Q22">
+        <v>3.2118000000000001E-4</v>
+      </c>
       <c r="W22" s="26" t="s">
         <v>25</v>
       </c>
@@ -3447,12 +3917,39 @@
         <v>4687392.517</v>
       </c>
       <c r="E23" s="13"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="25"/>
+      <c r="G23" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23">
+        <v>7512487.7889999999</v>
+      </c>
+      <c r="I23">
+        <v>4687204.2709999997</v>
+      </c>
+      <c r="J23">
+        <v>618.822</v>
+      </c>
+      <c r="K23" t="s">
+        <v>131</v>
+      </c>
+      <c r="L23">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M23">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="N23" s="89">
+        <v>0.49172453703703706</v>
+      </c>
+      <c r="O23" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P23">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="Q23">
+        <v>3.2119000000000001E-4</v>
+      </c>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
@@ -3465,70 +3962,136 @@
         <v>4687370.5279999999</v>
       </c>
       <c r="E24" s="13"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
+      <c r="G24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24">
+        <v>7512512.0049999999</v>
+      </c>
+      <c r="I24">
+        <v>4687209.392</v>
+      </c>
+      <c r="J24">
+        <v>617.79300000000001</v>
+      </c>
+      <c r="K24" t="s">
+        <v>133</v>
+      </c>
+      <c r="L24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M24">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="N24" s="89">
+        <v>0.49251157407407403</v>
+      </c>
+      <c r="O24" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P24">
+        <v>0.9</v>
+      </c>
+      <c r="Q24">
+        <v>3.212E-4</v>
+      </c>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="K25" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="L25" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="P25" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="W25" s="84" t="s">
+      <c r="G25" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25">
+        <v>7512519.1670000004</v>
+      </c>
+      <c r="I25">
+        <v>4687211.3509999998</v>
+      </c>
+      <c r="J25">
+        <v>617.524</v>
+      </c>
+      <c r="K25" t="s">
+        <v>135</v>
+      </c>
+      <c r="L25">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="M25">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="N25" s="89">
+        <v>0.49355324074074075</v>
+      </c>
+      <c r="O25" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P25">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="Q25">
+        <v>4.7045000000000002E-4</v>
+      </c>
+      <c r="W25" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="X25" s="84"/>
-      <c r="Y25" s="84"/>
-      <c r="Z25" s="84" t="s">
+      <c r="X25" s="86"/>
+      <c r="Y25" s="86"/>
+      <c r="Z25" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="AA25" s="84"/>
-      <c r="AB25" s="84"/>
+      <c r="AA25" s="86"/>
+      <c r="AB25" s="86"/>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B26" s="84" t="s">
+      <c r="B26" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="25"/>
-      <c r="P26" s="24" t="s">
-        <v>112</v>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="G26" t="s">
+        <v>136</v>
+      </c>
+      <c r="H26">
+        <v>7512519.2439999999</v>
+      </c>
+      <c r="I26">
+        <v>4687210.7419999996</v>
+      </c>
+      <c r="J26">
+        <v>617.52</v>
+      </c>
+      <c r="L26">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="M26">
+        <v>0.03</v>
+      </c>
+      <c r="N26" s="89">
+        <v>0.49409722222222219</v>
+      </c>
+      <c r="O26" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P26">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
       </c>
       <c r="W26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="X26" s="86" t="s">
+      <c r="X26" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="Y26" s="86"/>
+      <c r="Y26" s="87"/>
       <c r="Z26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AA26" s="86" t="s">
+      <c r="AA26" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="AB26" s="86"/>
+      <c r="AB26" s="87"/>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B27" s="26" t="s">
@@ -3543,14 +4106,38 @@
       <c r="E27" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="25"/>
-      <c r="P27" s="25" t="s">
-        <v>114</v>
+      <c r="G27" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27">
+        <v>7512516.1490000002</v>
+      </c>
+      <c r="I27">
+        <v>4687224.5049999999</v>
+      </c>
+      <c r="J27">
+        <v>618.12</v>
+      </c>
+      <c r="K27" t="s">
+        <v>138</v>
+      </c>
+      <c r="L27">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="M27">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="N27" s="89">
+        <v>0.49508101851851855</v>
+      </c>
+      <c r="O27" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P27">
+        <v>1.272</v>
+      </c>
+      <c r="Q27">
+        <v>4.7061999999999999E-4</v>
       </c>
       <c r="W27" s="9" t="s">
         <v>113</v>
@@ -3582,6 +4169,39 @@
         <v>4687394.07</v>
       </c>
       <c r="E28" s="13"/>
+      <c r="G28" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28">
+        <v>7512516.0800000001</v>
+      </c>
+      <c r="I28">
+        <v>4687224.6880000001</v>
+      </c>
+      <c r="J28">
+        <v>618.17899999999997</v>
+      </c>
+      <c r="K28" t="s">
+        <v>140</v>
+      </c>
+      <c r="L28">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="M28">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="N28" s="89">
+        <v>0.4954513888888889</v>
+      </c>
+      <c r="O28" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P28">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="Q28">
+        <v>4.7043999999999997E-4</v>
+      </c>
       <c r="W28" s="9" t="s">
         <v>112</v>
       </c>
@@ -3612,6 +4232,36 @@
         <v>4687397.1509999996</v>
       </c>
       <c r="E29" s="13"/>
+      <c r="G29" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29">
+        <v>7512457.3799999999</v>
+      </c>
+      <c r="I29">
+        <v>4687200.0259999996</v>
+      </c>
+      <c r="J29">
+        <v>620.29100000000005</v>
+      </c>
+      <c r="L29">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M29">
+        <v>3.1E-2</v>
+      </c>
+      <c r="N29" s="89">
+        <v>0.54659722222222229</v>
+      </c>
+      <c r="O29" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P29">
+        <v>1.032</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
       <c r="W29" s="9" t="s">
         <v>114</v>
       </c>
@@ -3642,6 +4292,36 @@
         <v>4687353.7810000004</v>
       </c>
       <c r="E30" s="13"/>
+      <c r="G30" t="s">
+        <v>142</v>
+      </c>
+      <c r="H30">
+        <v>7512470.8360000001</v>
+      </c>
+      <c r="I30">
+        <v>4687201.5520000001</v>
+      </c>
+      <c r="J30">
+        <v>619.596</v>
+      </c>
+      <c r="L30">
+        <v>0.02</v>
+      </c>
+      <c r="M30">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="N30" s="89">
+        <v>0.54716435185185186</v>
+      </c>
+      <c r="O30" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P30">
+        <v>1.1339999999999999</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
       <c r="W30" s="26" t="s">
         <v>25</v>
       </c>
@@ -3674,16 +4354,46 @@
         <v>4687361.2019999996</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="W31" s="84" t="s">
+      <c r="G31" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31">
+        <v>7512506.8269999996</v>
+      </c>
+      <c r="I31">
+        <v>4687207.7039999999</v>
+      </c>
+      <c r="J31">
+        <v>617.99599999999998</v>
+      </c>
+      <c r="L31">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="M31">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="N31" s="89">
+        <v>0.54832175925925919</v>
+      </c>
+      <c r="O31" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P31">
+        <v>1.1339999999999999</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="W31" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="X31" s="84"/>
-      <c r="Y31" s="84"/>
-      <c r="Z31" s="84" t="s">
+      <c r="X31" s="86"/>
+      <c r="Y31" s="86"/>
+      <c r="Z31" s="86" t="s">
         <v>111</v>
       </c>
-      <c r="AA31" s="84"/>
-      <c r="AB31" s="84"/>
+      <c r="AA31" s="86"/>
+      <c r="AB31" s="86"/>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32" s="9">
@@ -3696,20 +4406,53 @@
         <v>4687377.3020000001</v>
       </c>
       <c r="E32" s="13"/>
+      <c r="G32" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32">
+        <v>7512515.3959999997</v>
+      </c>
+      <c r="I32">
+        <v>4687227.7920000004</v>
+      </c>
+      <c r="J32">
+        <v>618.39</v>
+      </c>
+      <c r="K32" t="s">
+        <v>145</v>
+      </c>
+      <c r="L32">
+        <v>0.04</v>
+      </c>
+      <c r="M32">
+        <v>7.8E-2</v>
+      </c>
+      <c r="N32" s="89">
+        <v>0.55230324074074078</v>
+      </c>
+      <c r="O32" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P32">
+        <v>1.4259999999999999</v>
+      </c>
+      <c r="Q32">
+        <v>4.7061E-4</v>
+      </c>
       <c r="W32" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="X32" s="86" t="s">
+      <c r="X32" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="Y32" s="86"/>
+      <c r="Y32" s="87"/>
       <c r="Z32" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AA32" s="86" t="s">
+      <c r="AA32" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="AB32" s="86"/>
+      <c r="AB32" s="87"/>
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B33" s="9">
@@ -3722,6 +4465,39 @@
         <v>4687387.2410000004</v>
       </c>
       <c r="E33" s="13"/>
+      <c r="G33" t="s">
+        <v>146</v>
+      </c>
+      <c r="H33">
+        <v>7512512.5489999996</v>
+      </c>
+      <c r="I33">
+        <v>4687240.0120000001</v>
+      </c>
+      <c r="J33">
+        <v>618.70299999999997</v>
+      </c>
+      <c r="K33" t="s">
+        <v>147</v>
+      </c>
+      <c r="L33">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M33">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="N33" s="89">
+        <v>0.55300925925925926</v>
+      </c>
+      <c r="O33" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P33">
+        <v>2.2229999999999999</v>
+      </c>
+      <c r="Q33">
+        <v>4.706E-4</v>
+      </c>
       <c r="W33" s="9" t="s">
         <v>113</v>
       </c>
@@ -3754,6 +4530,39 @@
         <v>4687355.4929999998</v>
       </c>
       <c r="E34" s="13"/>
+      <c r="G34" t="s">
+        <v>148</v>
+      </c>
+      <c r="H34">
+        <v>7512495.6569999997</v>
+      </c>
+      <c r="I34">
+        <v>4687235.051</v>
+      </c>
+      <c r="J34">
+        <v>619.65499999999997</v>
+      </c>
+      <c r="K34" t="s">
+        <v>149</v>
+      </c>
+      <c r="L34">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M34">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="N34" s="89">
+        <v>0.5543865740740741</v>
+      </c>
+      <c r="O34" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P34">
+        <v>1.101</v>
+      </c>
+      <c r="Q34">
+        <v>3.1202999999999998E-4</v>
+      </c>
       <c r="W34" s="9" t="s">
         <v>112</v>
       </c>
@@ -3786,6 +4595,39 @@
         <v>4687392.9840000002</v>
       </c>
       <c r="E35" s="13"/>
+      <c r="G35" t="s">
+        <v>150</v>
+      </c>
+      <c r="H35">
+        <v>7512474.5329999998</v>
+      </c>
+      <c r="I35">
+        <v>4687228.93</v>
+      </c>
+      <c r="J35">
+        <v>620.58799999999997</v>
+      </c>
+      <c r="K35" t="s">
+        <v>151</v>
+      </c>
+      <c r="L35">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M35">
+        <v>0.03</v>
+      </c>
+      <c r="N35" s="89">
+        <v>0.55561342592592589</v>
+      </c>
+      <c r="O35" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P35">
+        <v>1.4670000000000001</v>
+      </c>
+      <c r="Q35">
+        <v>3.1203999999999997E-4</v>
+      </c>
       <c r="W35" s="9" t="s">
         <v>114</v>
       </c>
@@ -3818,6 +4660,39 @@
         <v>4687353.8159999996</v>
       </c>
       <c r="E36" s="13"/>
+      <c r="G36" t="s">
+        <v>152</v>
+      </c>
+      <c r="H36">
+        <v>7512422.0520000001</v>
+      </c>
+      <c r="I36">
+        <v>4687221.4790000003</v>
+      </c>
+      <c r="J36">
+        <v>622.98500000000001</v>
+      </c>
+      <c r="K36" t="s">
+        <v>153</v>
+      </c>
+      <c r="L36">
+        <v>3.1E-2</v>
+      </c>
+      <c r="M36">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="N36" s="89">
+        <v>0.55709490740740741</v>
+      </c>
+      <c r="O36" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P36">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="Q36">
+        <v>3.1205000000000002E-4</v>
+      </c>
       <c r="W36" s="26" t="s">
         <v>25</v>
       </c>
@@ -3839,13 +4714,78 @@
         <v>26</v>
       </c>
     </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>154</v>
+      </c>
+      <c r="H37">
+        <v>7512361.4189999998</v>
+      </c>
+      <c r="I37">
+        <v>4687217.7110000001</v>
+      </c>
+      <c r="J37">
+        <v>624.64400000000001</v>
+      </c>
+      <c r="K37" t="s">
+        <v>155</v>
+      </c>
+      <c r="L37">
+        <v>0.03</v>
+      </c>
+      <c r="M37">
+        <v>0.05</v>
+      </c>
+      <c r="N37" s="89">
+        <v>0.55984953703703699</v>
+      </c>
+      <c r="O37" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P37">
+        <v>1.1739999999999999</v>
+      </c>
+      <c r="Q37">
+        <v>3.1178999999999999E-4</v>
+      </c>
+    </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B38" s="84" t="s">
+      <c r="B38" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="G38" t="s">
+        <v>156</v>
+      </c>
+      <c r="H38">
+        <v>7512362.0049999999</v>
+      </c>
+      <c r="I38">
+        <v>4687217.9519999996</v>
+      </c>
+      <c r="J38">
+        <v>624.721</v>
+      </c>
+      <c r="L38">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="M38">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="N38" s="89">
+        <v>0.56016203703703704</v>
+      </c>
+      <c r="O38" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P38">
+        <v>1.018</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B39" s="26" t="s">
@@ -3860,6 +4800,39 @@
       <c r="E39" s="26" t="s">
         <v>3</v>
       </c>
+      <c r="G39" t="s">
+        <v>157</v>
+      </c>
+      <c r="H39">
+        <v>7512359.483</v>
+      </c>
+      <c r="I39">
+        <v>4687204.6430000002</v>
+      </c>
+      <c r="J39">
+        <v>624.11900000000003</v>
+      </c>
+      <c r="K39" t="s">
+        <v>158</v>
+      </c>
+      <c r="L39">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M39">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="N39" s="89">
+        <v>0.56112268518518515</v>
+      </c>
+      <c r="O39" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P39">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="Q39">
+        <v>3.1179999999999999E-4</v>
+      </c>
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B40" s="9">
@@ -3872,6 +4845,39 @@
         <v>4687217.6770000001</v>
       </c>
       <c r="E40" s="13"/>
+      <c r="G40" t="s">
+        <v>159</v>
+      </c>
+      <c r="H40">
+        <v>7512385.2570000002</v>
+      </c>
+      <c r="I40">
+        <v>4687195.3090000004</v>
+      </c>
+      <c r="J40">
+        <v>623.39499999999998</v>
+      </c>
+      <c r="K40" t="s">
+        <v>124</v>
+      </c>
+      <c r="L40">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="M40">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="N40" s="89">
+        <v>0.56202546296296296</v>
+      </c>
+      <c r="O40" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P40">
+        <v>1.143</v>
+      </c>
+      <c r="Q40">
+        <v>3.2116000000000002E-4</v>
+      </c>
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B41" s="9">
@@ -3884,6 +4890,39 @@
         <v>4687204.6179999998</v>
       </c>
       <c r="E41" s="13"/>
+      <c r="G41" t="s">
+        <v>160</v>
+      </c>
+      <c r="H41">
+        <v>7512430.8470000001</v>
+      </c>
+      <c r="I41">
+        <v>4687198.682</v>
+      </c>
+      <c r="J41">
+        <v>621.39700000000005</v>
+      </c>
+      <c r="K41" t="s">
+        <v>126</v>
+      </c>
+      <c r="L41">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="M41">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="N41" s="89">
+        <v>0.56305555555555553</v>
+      </c>
+      <c r="O41" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P41">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="Q41">
+        <v>3.2117000000000002E-4</v>
+      </c>
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B42" s="9">
@@ -3896,6 +4935,39 @@
         <v>4687235.0429999996</v>
       </c>
       <c r="E42" s="13"/>
+      <c r="G42" t="s">
+        <v>161</v>
+      </c>
+      <c r="H42">
+        <v>7512460.0209999997</v>
+      </c>
+      <c r="I42">
+        <v>4687200.3109999998</v>
+      </c>
+      <c r="J42">
+        <v>620.08100000000002</v>
+      </c>
+      <c r="K42" t="s">
+        <v>129</v>
+      </c>
+      <c r="L42">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M42">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="N42" s="89">
+        <v>0.5634837962962963</v>
+      </c>
+      <c r="O42" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P42">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="Q42">
+        <v>3.2118000000000001E-4</v>
+      </c>
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B43" s="9">
@@ -3908,6 +4980,39 @@
         <v>4687228.9840000002</v>
       </c>
       <c r="E43" s="13"/>
+      <c r="G43" t="s">
+        <v>162</v>
+      </c>
+      <c r="H43">
+        <v>7512422.1310000001</v>
+      </c>
+      <c r="I43">
+        <v>4687353.7170000002</v>
+      </c>
+      <c r="J43">
+        <v>629.40700000000004</v>
+      </c>
+      <c r="K43" t="s">
+        <v>163</v>
+      </c>
+      <c r="L43">
+        <v>1.4E-2</v>
+      </c>
+      <c r="M43">
+        <v>3.9E-2</v>
+      </c>
+      <c r="N43" s="89">
+        <v>0.56905092592592588</v>
+      </c>
+      <c r="O43" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P43">
+        <v>1.7789999999999999</v>
+      </c>
+      <c r="Q43">
+        <v>4.7127999999999997E-4</v>
+      </c>
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B44" s="9">
@@ -3920,6 +5025,39 @@
         <v>4687221.4450000003</v>
       </c>
       <c r="E44" s="13"/>
+      <c r="G44" t="s">
+        <v>164</v>
+      </c>
+      <c r="H44">
+        <v>7512421.966</v>
+      </c>
+      <c r="I44">
+        <v>4687353.7350000003</v>
+      </c>
+      <c r="J44">
+        <v>629.46900000000005</v>
+      </c>
+      <c r="K44" t="s">
+        <v>165</v>
+      </c>
+      <c r="L44">
+        <v>2.4E-2</v>
+      </c>
+      <c r="M44">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="N44" s="89">
+        <v>0.56987268518518519</v>
+      </c>
+      <c r="O44" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P44">
+        <v>1.7569999999999999</v>
+      </c>
+      <c r="Q44">
+        <v>3.1147E-4</v>
+      </c>
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B45" s="9">
@@ -3932,6 +5070,39 @@
         <v>4687219.1030000001</v>
       </c>
       <c r="E45" s="13"/>
+      <c r="G45" t="s">
+        <v>166</v>
+      </c>
+      <c r="H45">
+        <v>7512423.074</v>
+      </c>
+      <c r="I45">
+        <v>4687392.9369999999</v>
+      </c>
+      <c r="J45">
+        <v>630.61800000000005</v>
+      </c>
+      <c r="K45" t="s">
+        <v>167</v>
+      </c>
+      <c r="L45">
+        <v>1.2E-2</v>
+      </c>
+      <c r="M45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N45" s="89">
+        <v>0.57155092592592593</v>
+      </c>
+      <c r="O45" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P45">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="Q45">
+        <v>4.7126999999999998E-4</v>
+      </c>
     </row>
     <row r="46" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B46" s="9">
@@ -3944,6 +5115,39 @@
         <v>4687227.1030000001</v>
       </c>
       <c r="E46" s="13"/>
+      <c r="G46" t="s">
+        <v>168</v>
+      </c>
+      <c r="H46">
+        <v>7512420.9929999998</v>
+      </c>
+      <c r="I46">
+        <v>4687394.0319999997</v>
+      </c>
+      <c r="J46">
+        <v>630.19399999999996</v>
+      </c>
+      <c r="K46" t="s">
+        <v>169</v>
+      </c>
+      <c r="L46">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M46">
+        <v>2.7E-2</v>
+      </c>
+      <c r="N46" s="89">
+        <v>0.57251157407407405</v>
+      </c>
+      <c r="O46" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P46">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="Q46">
+        <v>3.1136E-4</v>
+      </c>
     </row>
     <row r="47" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B47" s="9">
@@ -3956,6 +5160,36 @@
         <v>4687210.8949999996</v>
       </c>
       <c r="E47" s="13"/>
+      <c r="G47" t="s">
+        <v>170</v>
+      </c>
+      <c r="H47">
+        <v>7512388.267</v>
+      </c>
+      <c r="I47">
+        <v>4687397.6370000001</v>
+      </c>
+      <c r="J47">
+        <v>631.73599999999999</v>
+      </c>
+      <c r="L47">
+        <v>1.4E-2</v>
+      </c>
+      <c r="M47">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="N47" s="89">
+        <v>0.57373842592592594</v>
+      </c>
+      <c r="O47" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P47">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B48" s="9">
@@ -3968,16 +5202,117 @@
         <v>4687214.0939999996</v>
       </c>
       <c r="E48" s="13"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="84" t="s">
+      <c r="G48" t="s">
+        <v>171</v>
+      </c>
+      <c r="H48">
+        <v>7512386.7050000001</v>
+      </c>
+      <c r="I48">
+        <v>4687397.176</v>
+      </c>
+      <c r="J48">
+        <v>632.62900000000002</v>
+      </c>
+      <c r="K48" t="s">
+        <v>172</v>
+      </c>
+      <c r="L48">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M48">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="N48" s="89">
+        <v>0.57434027777777774</v>
+      </c>
+      <c r="O48" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P48">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="Q48">
+        <v>3.1137E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>173</v>
+      </c>
+      <c r="H49">
+        <v>7512347.8629999999</v>
+      </c>
+      <c r="I49">
+        <v>4687406.8119999999</v>
+      </c>
+      <c r="J49">
+        <v>634.13099999999997</v>
+      </c>
+      <c r="K49" t="s">
+        <v>174</v>
+      </c>
+      <c r="L49">
+        <v>0.02</v>
+      </c>
+      <c r="M49">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="N49" s="89">
+        <v>0.57589120370370372</v>
+      </c>
+      <c r="O49" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P49">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="Q49">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B50" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="84"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="G50" t="s">
+        <v>175</v>
+      </c>
+      <c r="H50">
+        <v>7512347.5060000001</v>
+      </c>
+      <c r="I50">
+        <v>4687405.5279999999</v>
+      </c>
+      <c r="J50">
+        <v>633.33299999999997</v>
+      </c>
+      <c r="K50" t="s">
+        <v>174</v>
+      </c>
+      <c r="L50">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M50">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="N50" s="89">
+        <v>0.57688657407407407</v>
+      </c>
+      <c r="O50" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P50">
+        <v>0.99</v>
+      </c>
+      <c r="Q50">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="26" t="s">
         <v>0</v>
       </c>
@@ -3987,11 +5322,44 @@
       <c r="D51" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="87" t="s">
+      <c r="E51" s="61" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>176</v>
+      </c>
+      <c r="H51">
+        <v>7512341.7120000003</v>
+      </c>
+      <c r="I51">
+        <v>4687408.33</v>
+      </c>
+      <c r="J51">
+        <v>635.06700000000001</v>
+      </c>
+      <c r="K51" t="s">
+        <v>177</v>
+      </c>
+      <c r="L51">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M51">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N51" s="89">
+        <v>0.57934027777777775</v>
+      </c>
+      <c r="O51" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P51">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="Q51">
+        <v>3.1137999999999999E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" s="9">
         <v>31180</v>
       </c>
@@ -4002,8 +5370,38 @@
         <v>4687204.6179999998</v>
       </c>
       <c r="E52" s="13"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>178</v>
+      </c>
+      <c r="H52">
+        <v>7512340.9129999997</v>
+      </c>
+      <c r="I52">
+        <v>4687407.358</v>
+      </c>
+      <c r="J52">
+        <v>633.97199999999998</v>
+      </c>
+      <c r="L52">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M52">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="N52" s="89">
+        <v>0.57991898148148147</v>
+      </c>
+      <c r="O52" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P52">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" s="9">
         <v>31212</v>
       </c>
@@ -4014,8 +5412,38 @@
         <v>4687219.1030000001</v>
       </c>
       <c r="E53" s="13"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>179</v>
+      </c>
+      <c r="H53">
+        <v>7512337.7699999996</v>
+      </c>
+      <c r="I53">
+        <v>4687408.2479999997</v>
+      </c>
+      <c r="J53">
+        <v>634.06100000000004</v>
+      </c>
+      <c r="L53">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M53">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="N53" s="89">
+        <v>0.58064814814814814</v>
+      </c>
+      <c r="O53" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P53">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" s="9">
         <v>32116</v>
       </c>
@@ -4026,8 +5454,41 @@
         <v>4687195.3669999996</v>
       </c>
       <c r="E54" s="13"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>180</v>
+      </c>
+      <c r="H54">
+        <v>7512312.557</v>
+      </c>
+      <c r="I54">
+        <v>4687414.0049999999</v>
+      </c>
+      <c r="J54">
+        <v>635.47</v>
+      </c>
+      <c r="K54" t="s">
+        <v>181</v>
+      </c>
+      <c r="L54">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="M54">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="N54" s="89">
+        <v>0.58172453703703708</v>
+      </c>
+      <c r="O54" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P54">
+        <v>1.337</v>
+      </c>
+      <c r="Q54">
+        <v>3.1138999999999998E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" s="9">
         <v>32117</v>
       </c>
@@ -4038,8 +5499,41 @@
         <v>4687198.6859999998</v>
       </c>
       <c r="E55" s="13"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>182</v>
+      </c>
+      <c r="H55">
+        <v>7512264.29</v>
+      </c>
+      <c r="I55">
+        <v>4687425.8890000004</v>
+      </c>
+      <c r="J55">
+        <v>637.76199999999994</v>
+      </c>
+      <c r="K55" t="s">
+        <v>183</v>
+      </c>
+      <c r="L55">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="M55">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N55" s="89">
+        <v>0.58299768518518513</v>
+      </c>
+      <c r="O55" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P55">
+        <v>1.234</v>
+      </c>
+      <c r="Q55">
+        <v>3.1139999999999998E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" s="9">
         <v>32118</v>
       </c>
@@ -4050,8 +5544,41 @@
         <v>4687200.2850000001</v>
       </c>
       <c r="E56" s="13"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>184</v>
+      </c>
+      <c r="H56">
+        <v>7512259.8770000003</v>
+      </c>
+      <c r="I56">
+        <v>4687428.2139999997</v>
+      </c>
+      <c r="J56">
+        <v>638.24400000000003</v>
+      </c>
+      <c r="K56" t="s">
+        <v>185</v>
+      </c>
+      <c r="L56">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="M56">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="N56" s="89">
+        <v>0.58471064814814822</v>
+      </c>
+      <c r="O56" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P56">
+        <v>1.321</v>
+      </c>
+      <c r="Q56">
+        <v>3.0685E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B57" s="9">
         <v>32119</v>
       </c>
@@ -4062,8 +5589,41 @@
         <v>4687204.2740000002</v>
       </c>
       <c r="E57" s="13"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>186</v>
+      </c>
+      <c r="H57">
+        <v>7512276.5389999999</v>
+      </c>
+      <c r="I57">
+        <v>4687392.4670000002</v>
+      </c>
+      <c r="J57">
+        <v>635.87599999999998</v>
+      </c>
+      <c r="K57" t="s">
+        <v>187</v>
+      </c>
+      <c r="L57">
+        <v>1.2E-2</v>
+      </c>
+      <c r="M57">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="N57" s="89">
+        <v>0.58849537037037036</v>
+      </c>
+      <c r="O57" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P57">
+        <v>1.228</v>
+      </c>
+      <c r="Q57">
+        <v>4.6937999999999998E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" s="9">
         <v>32120</v>
       </c>
@@ -4074,8 +5634,41 @@
         <v>4687209.3930000002</v>
       </c>
       <c r="E58" s="13"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>188</v>
+      </c>
+      <c r="H58">
+        <v>7512290.0039999997</v>
+      </c>
+      <c r="I58">
+        <v>4687386.83</v>
+      </c>
+      <c r="J58">
+        <v>635.10199999999998</v>
+      </c>
+      <c r="K58" t="s">
+        <v>189</v>
+      </c>
+      <c r="L58">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="M58">
+        <v>0.04</v>
+      </c>
+      <c r="N58" s="89">
+        <v>0.58969907407407407</v>
+      </c>
+      <c r="O58" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P58">
+        <v>1.8280000000000001</v>
+      </c>
+      <c r="Q58">
+        <v>3.1165000000000001E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" s="9">
         <v>32124</v>
       </c>
@@ -4086,8 +5679,41 @@
         <v>4687210.8949999996</v>
       </c>
       <c r="E59" s="13"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>190</v>
+      </c>
+      <c r="H59">
+        <v>7512336.4179999996</v>
+      </c>
+      <c r="I59">
+        <v>4687372.426</v>
+      </c>
+      <c r="J59">
+        <v>633.49699999999996</v>
+      </c>
+      <c r="K59" t="s">
+        <v>191</v>
+      </c>
+      <c r="L59">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="M59">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N59" s="89">
+        <v>0.59055555555555561</v>
+      </c>
+      <c r="O59" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P59">
+        <v>1.8420000000000001</v>
+      </c>
+      <c r="Q59">
+        <v>3.1166000000000001E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" s="9">
         <v>32125</v>
       </c>
@@ -4098,8 +5724,41 @@
         <v>4687214.0939999996</v>
       </c>
       <c r="E60" s="13"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>192</v>
+      </c>
+      <c r="H60">
+        <v>7512339.0789999999</v>
+      </c>
+      <c r="I60">
+        <v>4687371.7379999999</v>
+      </c>
+      <c r="J60">
+        <v>633.39700000000005</v>
+      </c>
+      <c r="K60" t="s">
+        <v>193</v>
+      </c>
+      <c r="L60">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="M60">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="N60" s="89">
+        <v>0.59134259259259259</v>
+      </c>
+      <c r="O60" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P60">
+        <v>1.5840000000000001</v>
+      </c>
+      <c r="Q60">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" s="9">
         <v>47044</v>
       </c>
@@ -4110,8 +5769,41 @@
         <v>4687224.5520000001</v>
       </c>
       <c r="E61" s="13"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>194</v>
+      </c>
+      <c r="H61">
+        <v>7512343.9790000003</v>
+      </c>
+      <c r="I61">
+        <v>4687370.5480000004</v>
+      </c>
+      <c r="J61">
+        <v>633.178</v>
+      </c>
+      <c r="K61" t="s">
+        <v>195</v>
+      </c>
+      <c r="L61">
+        <v>1.4E-2</v>
+      </c>
+      <c r="M61">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="N61" s="89">
+        <v>0.59174768518518517</v>
+      </c>
+      <c r="O61" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P61">
+        <v>1.411</v>
+      </c>
+      <c r="Q61">
+        <v>4.7024000000000002E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" s="9">
         <v>47045</v>
       </c>
@@ -4122,8 +5814,41 @@
         <v>4687211.4369999999</v>
       </c>
       <c r="E62" s="13"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>196</v>
+      </c>
+      <c r="H62">
+        <v>7512380.8119999999</v>
+      </c>
+      <c r="I62">
+        <v>4687361.1679999996</v>
+      </c>
+      <c r="J62">
+        <v>631.60799999999995</v>
+      </c>
+      <c r="K62" t="s">
+        <v>197</v>
+      </c>
+      <c r="L62">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="M62">
+        <v>3.1E-2</v>
+      </c>
+      <c r="N62" s="89">
+        <v>0.5926851851851852</v>
+      </c>
+      <c r="O62" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P62">
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="Q62">
+        <v>3.1147999999999999E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" s="9">
         <v>47046</v>
       </c>
@@ -4134,8 +5859,41 @@
         <v>4687194.6670000004</v>
       </c>
       <c r="E63" s="13"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>198</v>
+      </c>
+      <c r="H63">
+        <v>7512412.4780000001</v>
+      </c>
+      <c r="I63">
+        <v>4687355.4749999996</v>
+      </c>
+      <c r="J63">
+        <v>629.97400000000005</v>
+      </c>
+      <c r="K63" t="s">
+        <v>199</v>
+      </c>
+      <c r="L63">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="M63">
+        <v>2.7E-2</v>
+      </c>
+      <c r="N63" s="89">
+        <v>0.59357638888888886</v>
+      </c>
+      <c r="O63" s="20">
+        <v>36966</v>
+      </c>
+      <c r="P63">
+        <v>1.123</v>
+      </c>
+      <c r="Q63">
+        <v>4.7022999999999998E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" s="9">
         <v>47047</v>
       </c>
@@ -4184,12 +5942,12 @@
       <c r="E67" s="13"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="84" t="s">
+      <c r="B69" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="84"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="84"/>
+      <c r="C69" s="86"/>
+      <c r="D69" s="86"/>
+      <c r="E69" s="86"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="26" t="s">
@@ -4201,7 +5959,7 @@
       <c r="D70" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E70" s="87" t="s">
+      <c r="E70" s="61" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4294,6 +6052,18 @@
     <sortCondition ref="P25"/>
   </sortState>
   <mergeCells count="25">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="W31:Y31"/>
     <mergeCell ref="Z31:AB31"/>
     <mergeCell ref="X32:Y32"/>
     <mergeCell ref="AA32:AB32"/>
@@ -4307,18 +6077,6 @@
     <mergeCell ref="AA18:AB18"/>
     <mergeCell ref="W17:Y17"/>
     <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="W11:Y11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4336,7 +6094,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="5:76" x14ac:dyDescent="0.25">
-      <c r="E4" s="88">
+      <c r="E4" s="62">
         <v>7512091.7089999998</v>
       </c>
       <c r="F4" t="s">
@@ -4554,7 +6312,7 @@
       </c>
     </row>
     <row r="6" spans="5:76" x14ac:dyDescent="0.25">
-      <c r="BC6" s="88">
+      <c r="BC6" s="62">
         <v>7512091.7089999998</v>
       </c>
       <c r="BD6">

--- a/cd/7-Koordinatat-e-pikave-për-parcelë-2171-0-Tahir-Shehu.xlsx
+++ b/cd/7-Koordinatat-e-pikave-për-parcelë-2171-0-Tahir-Shehu.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="dorzim" sheetId="1" r:id="rId1"/>
-    <sheet name="src" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="dorzim-2171" sheetId="4" r:id="rId1"/>
+    <sheet name="dorzim-2180" sheetId="1" r:id="rId2"/>
+    <sheet name="src" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">dorzim!$A$1:$J$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'dorzim-2171'!$A$1:$J$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'dorzim-2180'!$A$1:$J$65</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="210">
   <si>
     <t>Nr</t>
   </si>
@@ -122,9 +124,6 @@
     <t>m²</t>
   </si>
   <si>
-    <t>220086-PM</t>
-  </si>
-  <si>
     <t>Sead Prushi</t>
   </si>
   <si>
@@ -639,6 +638,39 @@
   </si>
   <si>
     <t>|47023</t>
+  </si>
+  <si>
+    <t>Matja e pikave në dy seri</t>
+  </si>
+  <si>
+    <t>Seria</t>
+  </si>
+  <si>
+    <t>Nr. Pikës</t>
+  </si>
+  <si>
+    <t>ΔY</t>
+  </si>
+  <si>
+    <t>ΔX</t>
+  </si>
+  <si>
+    <t>ΔP</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>Koordinatat përfundimtare</t>
+  </si>
+  <si>
+    <t>3321-0</t>
+  </si>
+  <si>
+    <t>3322-0</t>
   </si>
 </sst>
 </file>
@@ -649,7 +681,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,12 +721,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -725,6 +751,24 @@
       <name val="CascadiaCode Nerd Font"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -746,7 +790,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -807,36 +851,6 @@
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -1021,26 +1035,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1049,7 +1100,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1067,7 +1118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1092,66 +1143,24 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1160,55 +1169,119 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1217,38 +1290,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1256,28 +1302,66 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1296,6 +1380,405 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>451310</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>16719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>685801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F399456-FFFA-4806-B53B-2B24D3A1E278}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4480385" y="207219"/>
+          <a:ext cx="920289" cy="669082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6569</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2975170" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91F6037-E9CB-49EA-8E58-E0677C590B64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1225769" y="2318188"/>
+          <a:ext cx="2975170" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Komuna: Ferizaj		</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>839686</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>43127</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2953749" cy="711733"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07937452-2E79-4669-8F05-2069DFF859A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4881007" y="2356341"/>
+          <a:ext cx="2953749" cy="711733"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Zona Kadastrale: Greme</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>597118</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>51238</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3734036" cy="471026"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9F1684-A2E1-4EF0-89C9-1E368E9A0FDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1206718" y="2546788"/>
+          <a:ext cx="3734036" cy="471026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Numri</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> i njësis kadastrale</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2171-0 2172-0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2173-1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" b="1">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>842998</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>105246</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3051603" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D2CC83-FE69-4C93-84EB-099D36DB81C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4872073" y="2600796"/>
+          <a:ext cx="3051603" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Sistemi koordinat: KosovaRef01</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1473,7 +1956,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Zona Kadastrale: Ferizaj</a:t>
+            <a:t>Zona Kadastrale: Greme</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1557,7 +2040,7 @@
             <a:t>: </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="sq-AL" sz="1100" b="1">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1565,12 +2048,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>469-17, 3133-1, 3133-2, 3179-0</a:t>
+            <a:t>2181-1 ,2180-0,2183-6</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" b="1">
-            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1937,10 +2416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="C14:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1957,157 +2436,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+      <c r="A1" s="70"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
     </row>
     <row r="2" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
     </row>
     <row r="4" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="65"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="67"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="74"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="70"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="68"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="70"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="77"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="71"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="73"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="80"/>
+    </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="40" t="s">
+      <c r="H14" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="35" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C15" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="42">
-        <v>7512362.3835000005</v>
-      </c>
-      <c r="E15" s="42">
-        <v>4694374.6409999998</v>
-      </c>
-      <c r="F15" s="42">
-        <v>620.67409999999995</v>
-      </c>
-      <c r="G15" s="32">
+      <c r="C15" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="30">
         <v>11</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="33" t="s">
         <v>6</v>
       </c>
       <c r="I15" s="33" t="s">
@@ -2115,49 +2593,49 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C16" s="50">
-        <v>159376</v>
-      </c>
-      <c r="D16" s="51">
-        <v>7512330.5180000002</v>
-      </c>
-      <c r="E16" s="51">
-        <v>4693564.4589999998</v>
-      </c>
-      <c r="F16" s="51">
-        <v>621.70699999999999</v>
-      </c>
-      <c r="G16" s="52">
+      <c r="C16" s="38">
+        <v>30685</v>
+      </c>
+      <c r="D16" s="36">
+        <v>7512258.8430000003</v>
+      </c>
+      <c r="E16" s="36">
+        <v>4687429.2170000002</v>
+      </c>
+      <c r="F16" s="36">
+        <v>638.24400000000003</v>
+      </c>
+      <c r="G16" s="37">
         <v>2</v>
       </c>
-      <c r="H16" s="53" t="s">
+      <c r="H16" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="54" t="s">
+      <c r="I16" s="38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="3:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C17" s="50">
-        <v>159377</v>
-      </c>
-      <c r="D17" s="51">
-        <v>7512331.9060000004</v>
-      </c>
-      <c r="E17" s="51">
-        <v>4693571.4270000001</v>
-      </c>
-      <c r="F17" s="51">
-        <v>621.54399999999998</v>
-      </c>
-      <c r="G17" s="52">
-        <v>2</v>
-      </c>
-      <c r="H17" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="54" t="s">
-        <v>12</v>
+      <c r="C17" s="38">
+        <v>30686</v>
+      </c>
+      <c r="D17" s="36">
+        <v>7512245.9890000001</v>
+      </c>
+      <c r="E17" s="36">
+        <v>4687417.2439999999</v>
+      </c>
+      <c r="F17" s="36">
+        <v>0</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>24</v>
       </c>
       <c r="M17" s="28"/>
       <c r="N17" s="28"/>
@@ -2165,26 +2643,26 @@
       <c r="P17" s="28"/>
     </row>
     <row r="18" spans="3:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C18" s="50">
-        <v>159378</v>
-      </c>
-      <c r="D18" s="51">
-        <v>7512341.5070000002</v>
-      </c>
-      <c r="E18" s="51">
-        <v>4693619.5949999997</v>
-      </c>
-      <c r="F18" s="51">
-        <v>622.00599999999997</v>
-      </c>
-      <c r="G18" s="52">
-        <v>2</v>
-      </c>
-      <c r="H18" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="54" t="s">
-        <v>12</v>
+      <c r="C18" s="38">
+        <v>30687</v>
+      </c>
+      <c r="D18" s="36">
+        <v>7512235.5190000003</v>
+      </c>
+      <c r="E18" s="36">
+        <v>4687409.9550000001</v>
+      </c>
+      <c r="F18" s="36">
+        <v>0</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>24</v>
       </c>
       <c r="M18" s="28"/>
       <c r="N18" s="28"/>
@@ -2192,71 +2670,71 @@
       <c r="P18" s="28"/>
     </row>
     <row r="19" spans="3:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C19" s="50">
-        <v>159379</v>
-      </c>
-      <c r="D19" s="51">
-        <v>7512342.46</v>
-      </c>
-      <c r="E19" s="51">
-        <v>4693623.42</v>
-      </c>
-      <c r="F19" s="51">
-        <v>622.05600000000004</v>
-      </c>
-      <c r="G19" s="52">
+      <c r="C19" s="38">
+        <v>31136</v>
+      </c>
+      <c r="D19" s="36">
+        <v>7512420.9950000001</v>
+      </c>
+      <c r="E19" s="36">
+        <v>4687394.07</v>
+      </c>
+      <c r="F19" s="36">
+        <v>630.19399999999996</v>
+      </c>
+      <c r="G19" s="37">
         <v>2</v>
       </c>
-      <c r="H19" s="53" t="s">
+      <c r="H19" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="54" t="s">
+      <c r="I19" s="38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="3:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C20" s="50">
-        <v>160399</v>
-      </c>
-      <c r="D20" s="51">
-        <v>7512320.1370000001</v>
-      </c>
-      <c r="E20" s="51">
-        <v>4693607.8059999999</v>
-      </c>
-      <c r="F20" s="51">
-        <v>620.875</v>
-      </c>
-      <c r="G20" s="52">
+      <c r="C20" s="38">
+        <v>31137</v>
+      </c>
+      <c r="D20" s="36">
+        <v>7512386.7359999996</v>
+      </c>
+      <c r="E20" s="36">
+        <v>4687397.1509999996</v>
+      </c>
+      <c r="F20" s="36">
+        <v>632.62900000000002</v>
+      </c>
+      <c r="G20" s="37">
         <v>2</v>
       </c>
-      <c r="H20" s="53" t="s">
+      <c r="H20" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="54" t="s">
+      <c r="I20" s="38" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="3:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C21" s="47">
-        <v>160400</v>
-      </c>
-      <c r="D21" s="48">
-        <v>7512312.5350000001</v>
-      </c>
-      <c r="E21" s="48">
-        <v>4693568.648</v>
-      </c>
-      <c r="F21" s="48">
-        <v>621.24099999999999</v>
-      </c>
-      <c r="G21" s="36">
+      <c r="C21" s="35">
+        <v>31138</v>
+      </c>
+      <c r="D21" s="34">
+        <v>7512341.557</v>
+      </c>
+      <c r="E21" s="34">
+        <v>4687408.4220000003</v>
+      </c>
+      <c r="F21" s="34">
+        <v>635.06700000000001</v>
+      </c>
+      <c r="G21" s="31">
         <v>2</v>
       </c>
-      <c r="H21" s="49" t="s">
+      <c r="H21" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="37" t="s">
+      <c r="I21" s="35" t="s">
         <v>12</v>
       </c>
       <c r="M21" s="28"/>
@@ -2265,118 +2743,118 @@
       <c r="P21" s="28"/>
     </row>
     <row r="22" spans="3:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C22" s="47">
-        <v>160402</v>
-      </c>
-      <c r="D22" s="48">
-        <v>7512324.5700000003</v>
-      </c>
-      <c r="E22" s="48">
-        <v>4693627.95</v>
-      </c>
-      <c r="F22" s="48">
-        <v>621.80399999999997</v>
-      </c>
-      <c r="G22" s="36">
+      <c r="C22" s="35">
+        <v>31139</v>
+      </c>
+      <c r="D22" s="34">
+        <v>7512312.5580000002</v>
+      </c>
+      <c r="E22" s="34">
+        <v>4687414.07</v>
+      </c>
+      <c r="F22" s="34">
+        <v>635.47</v>
+      </c>
+      <c r="G22" s="31">
         <v>2</v>
       </c>
-      <c r="H22" s="49" t="s">
+      <c r="H22" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="37" t="s">
+      <c r="I22" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="3:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C23" s="47">
-        <v>159372</v>
-      </c>
-      <c r="D23" s="48">
-        <v>7512327.0290000001</v>
-      </c>
-      <c r="E23" s="48">
-        <v>4693546.9359999998</v>
-      </c>
-      <c r="F23" s="48">
-        <v>621.73199999999997</v>
-      </c>
-      <c r="G23" s="36">
+      <c r="C23" s="35">
+        <v>31140</v>
+      </c>
+      <c r="D23" s="34">
+        <v>7512264.2779999999</v>
+      </c>
+      <c r="E23" s="34">
+        <v>4687425.8940000003</v>
+      </c>
+      <c r="F23" s="34">
+        <v>637.76199999999994</v>
+      </c>
+      <c r="G23" s="31">
         <v>2</v>
       </c>
-      <c r="H23" s="49" t="s">
+      <c r="H23" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="37" t="s">
+      <c r="I23" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="3:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C24" s="47">
-        <v>159373</v>
-      </c>
-      <c r="D24" s="48">
-        <v>7512327.3099999996</v>
-      </c>
-      <c r="E24" s="48">
-        <v>4693548.3499999996</v>
-      </c>
-      <c r="F24" s="48">
-        <v>621.702</v>
-      </c>
-      <c r="G24" s="36">
+      <c r="C24" s="35">
+        <v>31147</v>
+      </c>
+      <c r="D24" s="34">
+        <v>7512421.9249999998</v>
+      </c>
+      <c r="E24" s="34">
+        <v>4687353.7810000004</v>
+      </c>
+      <c r="F24" s="34">
+        <v>629.46900000000005</v>
+      </c>
+      <c r="G24" s="31">
         <v>2</v>
       </c>
-      <c r="H24" s="49" t="s">
+      <c r="H24" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="37" t="s">
+      <c r="I24" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="3:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C25" s="47">
-        <v>159374</v>
-      </c>
-      <c r="D25" s="48">
-        <v>7512329.3760000002</v>
-      </c>
-      <c r="E25" s="48">
-        <v>4693558.7230000002</v>
-      </c>
-      <c r="F25" s="48">
-        <v>621.71100000000001</v>
-      </c>
-      <c r="G25" s="36">
+      <c r="C25" s="35">
+        <v>31148</v>
+      </c>
+      <c r="D25" s="34">
+        <v>7512380.8159999996</v>
+      </c>
+      <c r="E25" s="34">
+        <v>4687361.2019999996</v>
+      </c>
+      <c r="F25" s="34">
+        <v>631.60799999999995</v>
+      </c>
+      <c r="G25" s="31">
         <v>2</v>
       </c>
-      <c r="H25" s="49" t="s">
+      <c r="H25" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="37" t="s">
+      <c r="I25" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="3:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C26" s="47">
-        <v>160396</v>
-      </c>
-      <c r="D26" s="48">
-        <v>7512308.4570000004</v>
-      </c>
-      <c r="E26" s="48">
-        <v>4693563.125</v>
-      </c>
-      <c r="F26" s="48">
-        <v>621.70699999999999</v>
-      </c>
-      <c r="G26" s="36">
-        <v>2</v>
-      </c>
-      <c r="H26" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="37" t="s">
-        <v>12</v>
+      <c r="C26" s="35">
+        <v>31149</v>
+      </c>
+      <c r="D26" s="34">
+        <v>7512383.216</v>
+      </c>
+      <c r="E26" s="34">
+        <v>4687377.3020000001</v>
+      </c>
+      <c r="F26" s="34">
+        <v>0</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>24</v>
       </c>
       <c r="M26" s="29"/>
       <c r="N26" s="29"/>
@@ -2384,25 +2862,25 @@
       <c r="P26" s="29"/>
     </row>
     <row r="27" spans="3:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C27" s="47">
-        <v>160397</v>
-      </c>
-      <c r="D27" s="48">
-        <v>7512307.5</v>
-      </c>
-      <c r="E27" s="48">
-        <v>4693551.47</v>
-      </c>
-      <c r="F27" s="48" t="s">
+      <c r="C27" s="35">
+        <v>31150</v>
+      </c>
+      <c r="D27" s="34">
+        <v>7512384.8159999996</v>
+      </c>
+      <c r="E27" s="34">
+        <v>4687387.2410000004</v>
+      </c>
+      <c r="F27" s="34">
+        <v>0</v>
+      </c>
+      <c r="G27" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="36" t="s">
+      <c r="H27" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="37" t="s">
+      <c r="I27" s="35" t="s">
         <v>24</v>
       </c>
       <c r="M27" s="29"/>
@@ -2411,71 +2889,71 @@
       <c r="P27" s="29"/>
     </row>
     <row r="28" spans="3:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C28" s="47">
-        <v>160398</v>
-      </c>
-      <c r="D28" s="48">
-        <v>7512307.4539999999</v>
-      </c>
-      <c r="E28" s="48">
-        <v>4693550.9179999996</v>
-      </c>
-      <c r="F28" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" s="37" t="s">
-        <v>24</v>
+      <c r="C28" s="35">
+        <v>31165</v>
+      </c>
+      <c r="D28" s="34">
+        <v>7512289.9570000004</v>
+      </c>
+      <c r="E28" s="34">
+        <v>4687386.8339999998</v>
+      </c>
+      <c r="F28" s="34">
+        <v>635.10199999999998</v>
+      </c>
+      <c r="G28" s="31">
+        <v>2</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="35" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="3:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C29" s="47">
-        <v>159371</v>
-      </c>
-      <c r="D29" s="48">
-        <v>7512325.0539999995</v>
-      </c>
-      <c r="E29" s="48">
-        <v>4693537.0190000003</v>
-      </c>
-      <c r="F29" s="48">
-        <v>621.74199999999996</v>
-      </c>
-      <c r="G29" s="36">
+      <c r="C29" s="35">
+        <v>31166</v>
+      </c>
+      <c r="D29" s="34">
+        <v>7512336.426</v>
+      </c>
+      <c r="E29" s="34">
+        <v>4687372.4330000002</v>
+      </c>
+      <c r="F29" s="34">
+        <v>633.49699999999996</v>
+      </c>
+      <c r="G29" s="31">
         <v>2</v>
       </c>
-      <c r="H29" s="49" t="s">
+      <c r="H29" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="37" t="s">
+      <c r="I29" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="3:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C30" s="47">
-        <v>159735</v>
-      </c>
-      <c r="D30" s="48">
-        <v>7512306.3109999998</v>
-      </c>
-      <c r="E30" s="48">
-        <v>4693537.1050000004</v>
-      </c>
-      <c r="F30" s="48">
-        <v>621.69299999999998</v>
-      </c>
-      <c r="G30" s="36">
+      <c r="C30" s="35">
+        <v>32210</v>
+      </c>
+      <c r="D30" s="34">
+        <v>7512310.0470000003</v>
+      </c>
+      <c r="E30" s="34">
+        <v>4687396.4230000004</v>
+      </c>
+      <c r="F30" s="34">
+        <v>0</v>
+      </c>
+      <c r="G30" s="31">
         <v>2</v>
       </c>
-      <c r="H30" s="49" t="s">
+      <c r="H30" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="37" t="s">
+      <c r="I30" s="35" t="s">
         <v>12</v>
       </c>
       <c r="M30" s="28"/>
@@ -2484,96 +2962,96 @@
       <c r="P30" s="28"/>
     </row>
     <row r="31" spans="3:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C31" s="47">
-        <v>159736</v>
-      </c>
-      <c r="D31" s="48">
-        <v>7512307.7709999997</v>
-      </c>
-      <c r="E31" s="48">
-        <v>4693537.0980000002</v>
-      </c>
-      <c r="F31" s="48">
-        <v>621.68200000000002</v>
-      </c>
-      <c r="G31" s="36">
+      <c r="C31" s="35">
+        <v>46938</v>
+      </c>
+      <c r="D31" s="34">
+        <v>7512276.5750000002</v>
+      </c>
+      <c r="E31" s="34">
+        <v>4687392.517</v>
+      </c>
+      <c r="F31" s="34">
+        <v>635.87599999999998</v>
+      </c>
+      <c r="G31" s="31">
         <v>2</v>
       </c>
-      <c r="H31" s="49" t="s">
+      <c r="H31" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I31" s="37" t="s">
+      <c r="I31" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="3:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C32" s="47">
-        <v>159733</v>
-      </c>
-      <c r="D32" s="48">
-        <v>7512285.193</v>
-      </c>
-      <c r="E32" s="48">
-        <v>4693537.5530000003</v>
-      </c>
-      <c r="F32" s="48">
-        <v>623.0779</v>
-      </c>
-      <c r="G32" s="36">
+      <c r="C32" s="35">
+        <v>47023</v>
+      </c>
+      <c r="D32" s="34">
+        <v>7512412.443</v>
+      </c>
+      <c r="E32" s="34">
+        <v>4687355.4929999998</v>
+      </c>
+      <c r="F32" s="34">
+        <v>629.97400000000005</v>
+      </c>
+      <c r="G32" s="31">
         <v>2</v>
       </c>
-      <c r="H32" s="49" t="s">
+      <c r="H32" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I32" s="37" t="s">
+      <c r="I32" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="C33" s="47">
-        <v>159734</v>
-      </c>
-      <c r="D33" s="48">
-        <v>7512292.5640000002</v>
-      </c>
-      <c r="E33" s="48">
-        <v>4693537.2300000004</v>
-      </c>
-      <c r="F33" s="48">
-        <v>621.12279999999998</v>
-      </c>
-      <c r="G33" s="36">
+      <c r="C33" s="35">
+        <v>47024</v>
+      </c>
+      <c r="D33" s="34">
+        <v>7512343.9579999996</v>
+      </c>
+      <c r="E33" s="34">
+        <v>4687370.5279999999</v>
+      </c>
+      <c r="F33" s="34">
+        <v>633.178</v>
+      </c>
+      <c r="G33" s="31">
         <v>2</v>
       </c>
-      <c r="H33" s="49" t="s">
+      <c r="H33" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="37" t="s">
+      <c r="I33" s="35" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="C34" s="47">
-        <v>160394</v>
-      </c>
-      <c r="D34" s="48">
-        <v>7512291.4699999997</v>
-      </c>
-      <c r="E34" s="48">
-        <v>4693567.4800000004</v>
-      </c>
-      <c r="F34" s="48">
-        <v>620.82159999999999</v>
-      </c>
-      <c r="G34" s="36">
+      <c r="C34" s="35">
+        <v>47127</v>
+      </c>
+      <c r="D34" s="34">
+        <v>7512423.0870000003</v>
+      </c>
+      <c r="E34" s="34">
+        <v>4687392.9840000002</v>
+      </c>
+      <c r="F34" s="34">
+        <v>630.61800000000005</v>
+      </c>
+      <c r="G34" s="31">
         <v>2</v>
       </c>
-      <c r="H34" s="49" t="s">
+      <c r="H34" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I34" s="37" t="s">
+      <c r="I34" s="35" t="s">
         <v>12</v>
       </c>
       <c r="M34" s="29"/>
@@ -2583,153 +3061,93 @@
     </row>
     <row r="35" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="C35" s="47">
-        <v>160395</v>
-      </c>
-      <c r="D35" s="48">
-        <v>7512308.54</v>
-      </c>
-      <c r="E35" s="48">
-        <v>4693564.13</v>
-      </c>
-      <c r="F35" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="I35" s="37" t="s">
-        <v>24</v>
+      <c r="C35" s="35">
+        <v>47128</v>
+      </c>
+      <c r="D35" s="34">
+        <v>7512422.0659999996</v>
+      </c>
+      <c r="E35" s="34">
+        <v>4687353.8159999996</v>
+      </c>
+      <c r="F35" s="34">
+        <v>629.46900000000005</v>
+      </c>
+      <c r="G35" s="31">
+        <v>2</v>
+      </c>
+      <c r="H35" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="M35" s="29"/>
       <c r="O35" s="29"/>
       <c r="P35" s="29"/>
     </row>
-    <row r="36" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="C36" s="47">
-        <v>160396</v>
-      </c>
-      <c r="D36" s="48">
-        <v>7512308.4570000004</v>
-      </c>
-      <c r="E36" s="48">
-        <v>4693563.125</v>
-      </c>
-      <c r="F36" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="I36" s="55" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="37" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="C37" s="47">
-        <v>159375</v>
-      </c>
-      <c r="D37" s="48">
-        <v>7512329.5669999998</v>
-      </c>
-      <c r="E37" s="48">
-        <v>4693559.6809999999</v>
-      </c>
-      <c r="F37" s="48">
-        <v>621.69899999999996</v>
-      </c>
-      <c r="G37" s="36">
-        <v>2</v>
-      </c>
-      <c r="H37" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="55" t="s">
-        <v>12</v>
-      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="C38" s="47">
-        <v>160393</v>
-      </c>
-      <c r="D38" s="48">
-        <v>7512301.7970000003</v>
-      </c>
-      <c r="E38" s="48">
-        <v>4693611.6869999999</v>
-      </c>
-      <c r="F38" s="48">
-        <v>621.24099999999999</v>
-      </c>
-      <c r="G38" s="36">
-        <v>2</v>
-      </c>
-      <c r="H38" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="55" t="s">
-        <v>12</v>
-      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="C39" s="44">
-        <v>160399</v>
-      </c>
-      <c r="D39" s="45">
-        <v>7512320.1370000001</v>
-      </c>
-      <c r="E39" s="45">
-        <v>4693607.8059999999</v>
-      </c>
-      <c r="F39" s="45">
-        <v>620.875</v>
-      </c>
-      <c r="G39" s="34">
-        <v>2</v>
-      </c>
-      <c r="H39" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="C40" s="56">
-        <v>1</v>
-      </c>
-      <c r="D40" s="57">
-        <v>7512338.3480000002</v>
-      </c>
-      <c r="E40" s="57">
-        <v>4693603.7479999997</v>
-      </c>
-      <c r="F40" s="57">
-        <v>621.60599999999999</v>
-      </c>
-      <c r="G40" s="58">
-        <v>2</v>
-      </c>
-      <c r="H40" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="60" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
@@ -2755,7 +3173,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2768,28 +3186,38 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="A45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="81"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="84"/>
+      <c r="J45" s="87"/>
+    </row>
+    <row r="46" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="90"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="91">
+        <v>152</v>
+      </c>
+      <c r="F46" s="91"/>
+      <c r="G46" s="92"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="88"/>
     </row>
     <row r="47" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
@@ -2815,7 +3243,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2827,86 +3255,16 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="F50" s="80"/>
-      <c r="G50" s="81"/>
-      <c r="H50" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="I50" s="75"/>
-      <c r="J50" s="78"/>
-    </row>
-    <row r="51" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="83"/>
-      <c r="C51" s="83"/>
-      <c r="D51" s="83"/>
-      <c r="E51" s="84">
-        <v>152</v>
-      </c>
-      <c r="F51" s="84"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="76"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="79"/>
-    </row>
-    <row r="52" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:J2"/>
     <mergeCell ref="A3:J6"/>
-    <mergeCell ref="A1:J2"/>
     <mergeCell ref="C8:I11"/>
-    <mergeCell ref="H50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="E46:G46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2916,10 +3274,1492 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AB77"/>
+  <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A21" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D16" sqref="C14:I38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="70"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+    </row>
+    <row r="2" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+    </row>
+    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+    </row>
+    <row r="4" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="71"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="65"/>
+    </row>
+    <row r="6" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="65"/>
+    </row>
+    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="65"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C8" s="72"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="74"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="65"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="65"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="77"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="65"/>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="80"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="65"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="65"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="N13" s="54"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="65"/>
+    </row>
+    <row r="14" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C14" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="65"/>
+    </row>
+    <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C15" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="30">
+        <v>11</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="54"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="65"/>
+    </row>
+    <row r="16" spans="1:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C16" s="38">
+        <v>31179</v>
+      </c>
+      <c r="D16" s="36">
+        <v>7512361.4129999997</v>
+      </c>
+      <c r="E16" s="36">
+        <v>4687217.6770000001</v>
+      </c>
+      <c r="F16" s="36">
+        <v>624.64400000000001</v>
+      </c>
+      <c r="G16" s="37">
+        <v>2</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="56"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="65"/>
+    </row>
+    <row r="17" spans="3:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C17" s="38">
+        <v>31180</v>
+      </c>
+      <c r="D17" s="36">
+        <v>7512359.4529999997</v>
+      </c>
+      <c r="E17" s="36">
+        <v>4687204.6179999998</v>
+      </c>
+      <c r="F17" s="36">
+        <v>624.11900000000003</v>
+      </c>
+      <c r="G17" s="37">
+        <v>2</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="28"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="65"/>
+    </row>
+    <row r="18" spans="3:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C18" s="38">
+        <v>31203</v>
+      </c>
+      <c r="D18" s="36">
+        <v>7512495.6619999995</v>
+      </c>
+      <c r="E18" s="36">
+        <v>4687235.0429999996</v>
+      </c>
+      <c r="F18" s="36">
+        <v>619.65499999999997</v>
+      </c>
+      <c r="G18" s="37">
+        <v>2</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="28"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="65"/>
+    </row>
+    <row r="19" spans="3:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C19" s="38">
+        <v>31204</v>
+      </c>
+      <c r="D19" s="36">
+        <v>7512474.5319999997</v>
+      </c>
+      <c r="E19" s="36">
+        <v>4687228.9840000002</v>
+      </c>
+      <c r="F19" s="36">
+        <v>620.58799999999997</v>
+      </c>
+      <c r="G19" s="37">
+        <v>2</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="65"/>
+    </row>
+    <row r="20" spans="3:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C20" s="38">
+        <v>31205</v>
+      </c>
+      <c r="D20" s="36">
+        <v>7512422.0429999996</v>
+      </c>
+      <c r="E20" s="36">
+        <v>4687221.4450000003</v>
+      </c>
+      <c r="F20" s="36">
+        <v>622.98500000000001</v>
+      </c>
+      <c r="G20" s="37">
+        <v>2</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="65"/>
+    </row>
+    <row r="21" spans="3:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C21" s="35">
+        <v>31212</v>
+      </c>
+      <c r="D21" s="34">
+        <v>7512499.9110000003</v>
+      </c>
+      <c r="E21" s="34">
+        <v>4687219.1030000001</v>
+      </c>
+      <c r="F21" s="34">
+        <v>0</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="28"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="65"/>
+    </row>
+    <row r="22" spans="3:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C22" s="35">
+        <v>31213</v>
+      </c>
+      <c r="D22" s="34">
+        <v>7512498.4309999999</v>
+      </c>
+      <c r="E22" s="34">
+        <v>4687227.1030000001</v>
+      </c>
+      <c r="F22" s="34">
+        <v>0</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="65"/>
+    </row>
+    <row r="23" spans="3:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C23" s="35">
+        <v>32116</v>
+      </c>
+      <c r="D23" s="34">
+        <v>7512385.273</v>
+      </c>
+      <c r="E23" s="34">
+        <v>4687195.3669999996</v>
+      </c>
+      <c r="F23" s="34">
+        <v>623.49350000000004</v>
+      </c>
+      <c r="G23" s="31">
+        <v>2</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="65"/>
+    </row>
+    <row r="24" spans="3:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C24" s="35">
+        <v>32117</v>
+      </c>
+      <c r="D24" s="34">
+        <v>7512430.8119999999</v>
+      </c>
+      <c r="E24" s="34">
+        <v>4687198.6859999998</v>
+      </c>
+      <c r="F24" s="34">
+        <v>621.38300000000004</v>
+      </c>
+      <c r="G24" s="31">
+        <v>2</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="61"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="65"/>
+    </row>
+    <row r="25" spans="3:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C25" s="35">
+        <v>32118</v>
+      </c>
+      <c r="D25" s="34">
+        <v>7512460.0520000001</v>
+      </c>
+      <c r="E25" s="34">
+        <v>4687200.2850000001</v>
+      </c>
+      <c r="F25" s="34">
+        <v>620.05799999999999</v>
+      </c>
+      <c r="G25" s="31">
+        <v>2</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="65"/>
+    </row>
+    <row r="26" spans="3:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C26" s="35">
+        <v>32119</v>
+      </c>
+      <c r="D26" s="34">
+        <v>7512487.7410000004</v>
+      </c>
+      <c r="E26" s="34">
+        <v>4687204.2740000002</v>
+      </c>
+      <c r="F26" s="34">
+        <v>618.822</v>
+      </c>
+      <c r="G26" s="31">
+        <v>2</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+    </row>
+    <row r="27" spans="3:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C27" s="35">
+        <v>32120</v>
+      </c>
+      <c r="D27" s="34">
+        <v>7512512.0410000002</v>
+      </c>
+      <c r="E27" s="34">
+        <v>4687209.3930000002</v>
+      </c>
+      <c r="F27" s="34">
+        <v>617.79300000000001</v>
+      </c>
+      <c r="G27" s="31">
+        <v>2</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+    </row>
+    <row r="28" spans="3:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C28" s="35">
+        <v>32124</v>
+      </c>
+      <c r="D28" s="34">
+        <v>7512456.2220000001</v>
+      </c>
+      <c r="E28" s="34">
+        <v>4687210.8949999996</v>
+      </c>
+      <c r="F28" s="34">
+        <v>0</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C29" s="35">
+        <v>32125</v>
+      </c>
+      <c r="D29" s="34">
+        <v>7512474.9519999996</v>
+      </c>
+      <c r="E29" s="34">
+        <v>4687214.0939999996</v>
+      </c>
+      <c r="F29" s="34">
+        <v>0</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C30" s="35">
+        <v>47044</v>
+      </c>
+      <c r="D30" s="34">
+        <v>7512516.1710000001</v>
+      </c>
+      <c r="E30" s="34">
+        <v>4687224.5520000001</v>
+      </c>
+      <c r="F30" s="34">
+        <v>0</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+    </row>
+    <row r="31" spans="3:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C31" s="35">
+        <v>47045</v>
+      </c>
+      <c r="D31" s="34">
+        <v>7512519.2089999998</v>
+      </c>
+      <c r="E31" s="34">
+        <v>4687211.4369999999</v>
+      </c>
+      <c r="F31" s="34">
+        <v>617.524</v>
+      </c>
+      <c r="G31" s="31">
+        <v>2</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C32" s="35">
+        <v>47046</v>
+      </c>
+      <c r="D32" s="34">
+        <v>7512375.3609999996</v>
+      </c>
+      <c r="E32" s="34">
+        <v>4687194.6670000004</v>
+      </c>
+      <c r="F32" s="34">
+        <v>623.81799999999998</v>
+      </c>
+      <c r="G32" s="31">
+        <v>2</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="C33" s="35">
+        <v>47047</v>
+      </c>
+      <c r="D33" s="34">
+        <v>7512370.3430000003</v>
+      </c>
+      <c r="E33" s="34">
+        <v>4687194.9450000003</v>
+      </c>
+      <c r="F33" s="34">
+        <v>624.95699999999999</v>
+      </c>
+      <c r="G33" s="31">
+        <v>2</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="C34" s="35">
+        <v>47048</v>
+      </c>
+      <c r="D34" s="34">
+        <v>7512359.7479999997</v>
+      </c>
+      <c r="E34" s="34">
+        <v>4687195.4589999998</v>
+      </c>
+      <c r="F34" s="34">
+        <v>623.55999999999995</v>
+      </c>
+      <c r="G34" s="31">
+        <v>2</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+    </row>
+    <row r="35" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="C35" s="35">
+        <v>47049</v>
+      </c>
+      <c r="D35" s="34">
+        <v>7512356.9050000003</v>
+      </c>
+      <c r="E35" s="34">
+        <v>4687195.5650000004</v>
+      </c>
+      <c r="F35" s="34">
+        <v>623.43899999999996</v>
+      </c>
+      <c r="G35" s="31">
+        <v>2</v>
+      </c>
+      <c r="H35" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+    </row>
+    <row r="36" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="C36" s="35">
+        <v>47060</v>
+      </c>
+      <c r="D36" s="34">
+        <v>7512512.5460000001</v>
+      </c>
+      <c r="E36" s="34">
+        <v>4687240.0760000004</v>
+      </c>
+      <c r="F36" s="34">
+        <v>618.70299999999997</v>
+      </c>
+      <c r="G36" s="31">
+        <v>2</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="C37" s="35">
+        <v>47061</v>
+      </c>
+      <c r="D37" s="34">
+        <v>7512515.4270000001</v>
+      </c>
+      <c r="E37" s="34">
+        <v>4687227.7640000004</v>
+      </c>
+      <c r="F37" s="34">
+        <v>618.39</v>
+      </c>
+      <c r="G37" s="31">
+        <v>2</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="C38" s="35">
+        <v>47062</v>
+      </c>
+      <c r="D38" s="34">
+        <v>7512516.1710000001</v>
+      </c>
+      <c r="E38" s="34">
+        <v>4687224.5520000001</v>
+      </c>
+      <c r="F38" s="34">
+        <v>618.12</v>
+      </c>
+      <c r="G38" s="31">
+        <v>2</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="93" t="s">
+        <v>199</v>
+      </c>
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="B41" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="C41" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="94"/>
+      <c r="G41" s="69" t="s">
+        <v>202</v>
+      </c>
+      <c r="H41" s="69" t="s">
+        <v>203</v>
+      </c>
+      <c r="I41" s="69" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="B42" s="45">
+        <v>32116</v>
+      </c>
+      <c r="C42" s="46">
+        <v>7512385.2549999999</v>
+      </c>
+      <c r="D42" s="46">
+        <v>4687195.2769999998</v>
+      </c>
+      <c r="E42" s="46">
+        <v>623.59199999999998</v>
+      </c>
+      <c r="F42" s="94"/>
+      <c r="G42" s="95">
+        <f>C42-C43</f>
+        <v>-2.0000003278255463E-3</v>
+      </c>
+      <c r="H42" s="95">
+        <f>D42-D43</f>
+        <v>-3.2000000588595867E-2</v>
+      </c>
+      <c r="I42" s="95">
+        <f>SQRT(G42^2+H42^2)</f>
+        <v>3.2062439691661615E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="B43" s="47">
+        <v>32116</v>
+      </c>
+      <c r="C43" s="46">
+        <v>7512385.2570000002</v>
+      </c>
+      <c r="D43" s="46">
+        <v>4687195.3090000004</v>
+      </c>
+      <c r="E43" s="46">
+        <v>623.39499999999998</v>
+      </c>
+      <c r="F43" s="94"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="B44" s="47">
+        <v>32117</v>
+      </c>
+      <c r="C44" s="48">
+        <v>7512430.8470000001</v>
+      </c>
+      <c r="D44" s="48">
+        <v>4687198.682</v>
+      </c>
+      <c r="E44" s="49">
+        <v>621.39700000000005</v>
+      </c>
+      <c r="F44" s="94"/>
+      <c r="G44" s="95">
+        <f>C44-C45</f>
+        <v>3.899999987334013E-2</v>
+      </c>
+      <c r="H44" s="95">
+        <f>D44-D45</f>
+        <v>1.6999999992549419E-2</v>
+      </c>
+      <c r="I44" s="95">
+        <f>SQRT(G44^2+H44^2)</f>
+        <v>4.254409465327956E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45" s="47">
+        <v>32117</v>
+      </c>
+      <c r="C45" s="48">
+        <v>7512430.8080000002</v>
+      </c>
+      <c r="D45" s="48">
+        <v>4687198.665</v>
+      </c>
+      <c r="E45" s="49">
+        <v>621.36900000000003</v>
+      </c>
+      <c r="F45" s="94"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="B46" s="45">
+        <v>32118</v>
+      </c>
+      <c r="C46" s="46">
+        <v>7512460.0310000004</v>
+      </c>
+      <c r="D46" s="46">
+        <v>4687200.301</v>
+      </c>
+      <c r="E46" s="46">
+        <v>620.03499999999997</v>
+      </c>
+      <c r="F46" s="94"/>
+      <c r="G46" s="95">
+        <f>C46-C47</f>
+        <v>1.0000000707805157E-2</v>
+      </c>
+      <c r="H46" s="95">
+        <f>D46-D47</f>
+        <v>-9.9999997764825821E-3</v>
+      </c>
+      <c r="I46" s="95">
+        <f>SQRT(G46^2+H46^2)</f>
+        <v>1.414213596617411E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="B47" s="47">
+        <v>32118</v>
+      </c>
+      <c r="C47" s="46">
+        <v>7512460.0209999997</v>
+      </c>
+      <c r="D47" s="46">
+        <v>4687200.3109999998</v>
+      </c>
+      <c r="E47" s="46">
+        <v>620.08100000000002</v>
+      </c>
+      <c r="F47" s="94"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="95"/>
+      <c r="I47" s="95"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="50"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="93" t="s">
+        <v>207</v>
+      </c>
+      <c r="F50" s="93"/>
+      <c r="G50" s="93"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="50"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="50"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="G51" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="I51" s="50"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="50"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="48">
+        <v>32116</v>
+      </c>
+      <c r="F52" s="51">
+        <f>(C42+C43)/2</f>
+        <v>7512385.2560000001</v>
+      </c>
+      <c r="G52" s="51">
+        <f>(D42+D43)/2</f>
+        <v>4687195.2929999996</v>
+      </c>
+      <c r="H52" s="67">
+        <f>(E42+E43)/2</f>
+        <v>623.49350000000004</v>
+      </c>
+      <c r="I52" s="50"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="50"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="48">
+        <v>32117</v>
+      </c>
+      <c r="F53" s="51">
+        <f>(C44+C45)/2</f>
+        <v>7512430.8275000006</v>
+      </c>
+      <c r="G53" s="51">
+        <f>(D44+D45)/2</f>
+        <v>4687198.6734999996</v>
+      </c>
+      <c r="H53" s="67">
+        <f>(E44+E45)/2</f>
+        <v>621.38300000000004</v>
+      </c>
+      <c r="I53" s="50"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="50"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="48">
+        <v>32118</v>
+      </c>
+      <c r="F54" s="51">
+        <f>(C46+C47)/2</f>
+        <v>7512460.0260000005</v>
+      </c>
+      <c r="G54" s="51">
+        <f>(D46+D47)/2</f>
+        <v>4687200.3059999999</v>
+      </c>
+      <c r="H54" s="51">
+        <f>(E46+E47)/2</f>
+        <v>620.05799999999999</v>
+      </c>
+      <c r="I54" s="50"/>
+    </row>
+    <row r="55" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" s="81"/>
+      <c r="G64" s="82"/>
+      <c r="H64" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" s="84"/>
+      <c r="J64" s="87"/>
+    </row>
+    <row r="65" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="90"/>
+      <c r="C65" s="90"/>
+      <c r="D65" s="90"/>
+      <c r="E65" s="91">
+        <v>152</v>
+      </c>
+      <c r="F65" s="91"/>
+      <c r="G65" s="92"/>
+      <c r="H65" s="85"/>
+      <c r="I65" s="86"/>
+      <c r="J65" s="88"/>
+    </row>
+    <row r="66" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A3:J6"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="C8:I11"/>
+    <mergeCell ref="H64:I65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E50:H50"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="F41:F47"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AB93"/>
+  <sheetViews>
+    <sheetView topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z51" sqref="W46:AB51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2937,38 +4777,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="86" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="G2" s="86" t="s">
+      <c r="B2" s="96" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="G2" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="88" t="s">
+      <c r="P2" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
       <c r="W2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="87" t="s">
+      <c r="X2" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="Y2" s="87"/>
+      <c r="Y2" s="97"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
@@ -3266,16 +5106,16 @@
       <c r="S11" s="12"/>
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
-      <c r="W11" s="86" t="s">
+      <c r="W11" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="96"/>
+      <c r="Z11" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="X11" s="86"/>
-      <c r="Y11" s="86"/>
-      <c r="Z11" s="86" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA11" s="86"/>
-      <c r="AB11" s="86"/>
+      <c r="AA11" s="96"/>
+      <c r="AB11" s="96"/>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
@@ -3300,17 +5140,17 @@
       <c r="W12" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="X12" s="87" t="s">
+      <c r="X12" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="Y12" s="87"/>
+      <c r="Y12" s="97"/>
       <c r="Z12" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AA12" s="87" t="s">
+      <c r="AA12" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="AB12" s="87"/>
+      <c r="AB12" s="97"/>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
@@ -3327,7 +5167,7 @@
       <c r="N13" s="25"/>
       <c r="O13" s="4"/>
       <c r="W13" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X13" s="10">
         <v>2421</v>
@@ -3336,7 +5176,7 @@
         <v>26</v>
       </c>
       <c r="Z13" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AA13" s="10">
         <v>2431.9810000000002</v>
@@ -3346,14 +5186,14 @@
       </c>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B14" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
+      <c r="B14" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
       <c r="G14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H14">
         <v>7512356.9550000001</v>
@@ -3365,7 +5205,7 @@
         <v>623.43899999999996</v>
       </c>
       <c r="K14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L14">
         <v>0.159</v>
@@ -3373,7 +5213,7 @@
       <c r="M14">
         <v>0.16700000000000001</v>
       </c>
-      <c r="N14" s="89">
+      <c r="N14" s="41">
         <v>0.48387731481481483</v>
       </c>
       <c r="O14" s="20">
@@ -3386,7 +5226,7 @@
         <v>4.7049E-4</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X14" s="10">
         <v>2171</v>
@@ -3395,7 +5235,7 @@
         <v>26</v>
       </c>
       <c r="Z14" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AA14" s="10">
         <v>2199.4490000000001</v>
@@ -3418,7 +5258,7 @@
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H15">
         <v>7512359.7439999999</v>
@@ -3430,7 +5270,7 @@
         <v>623.55999999999995</v>
       </c>
       <c r="K15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L15">
         <v>9.5000000000000001E-2</v>
@@ -3438,7 +5278,7 @@
       <c r="M15">
         <v>0.115</v>
       </c>
-      <c r="N15" s="89">
+      <c r="N15" s="41">
         <v>0.48474537037037035</v>
       </c>
       <c r="O15" s="20">
@@ -3451,7 +5291,7 @@
         <v>4.7048000000000001E-4</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X15" s="10">
         <v>1500</v>
@@ -3460,7 +5300,7 @@
         <v>26</v>
       </c>
       <c r="Z15" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA15" s="10">
         <v>1500.0830000000001</v>
@@ -3481,7 +5321,7 @@
       </c>
       <c r="E16" s="13"/>
       <c r="G16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H16">
         <v>7512370.4019999998</v>
@@ -3493,7 +5333,7 @@
         <v>624.95699999999999</v>
       </c>
       <c r="K16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L16">
         <v>2.1999999999999999E-2</v>
@@ -3501,7 +5341,7 @@
       <c r="M16">
         <v>3.9E-2</v>
       </c>
-      <c r="N16" s="89">
+      <c r="N16" s="41">
         <v>0.48555555555555557</v>
       </c>
       <c r="O16" s="20">
@@ -3546,7 +5386,7 @@
       </c>
       <c r="E17" s="13"/>
       <c r="G17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H17">
         <v>7512377</v>
@@ -3558,7 +5398,7 @@
         <v>623.81799999999998</v>
       </c>
       <c r="K17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L17">
         <v>0.02</v>
@@ -3566,7 +5406,7 @@
       <c r="M17">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="N17" s="89">
+      <c r="N17" s="41">
         <v>0.48623842592592598</v>
       </c>
       <c r="O17" s="20">
@@ -3578,16 +5418,16 @@
       <c r="Q17">
         <v>4.7046000000000002E-4</v>
       </c>
-      <c r="W17" s="86" t="s">
+      <c r="W17" s="96" t="s">
+        <v>109</v>
+      </c>
+      <c r="X17" s="96"/>
+      <c r="Y17" s="96"/>
+      <c r="Z17" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="X17" s="86"/>
-      <c r="Y17" s="86"/>
-      <c r="Z17" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA17" s="86"/>
-      <c r="AB17" s="86"/>
+      <c r="AA17" s="96"/>
+      <c r="AB17" s="96"/>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
@@ -3601,7 +5441,7 @@
       </c>
       <c r="E18" s="13"/>
       <c r="G18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H18">
         <v>7512385.2549999999</v>
@@ -3613,7 +5453,7 @@
         <v>623.59199999999998</v>
       </c>
       <c r="K18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L18">
         <v>0.126</v>
@@ -3621,7 +5461,7 @@
       <c r="M18">
         <v>0.14899999999999999</v>
       </c>
-      <c r="N18" s="89">
+      <c r="N18" s="41">
         <v>0.48716435185185186</v>
       </c>
       <c r="O18" s="20">
@@ -3637,17 +5477,17 @@
       <c r="W18" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="X18" s="87" t="s">
+      <c r="X18" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="Y18" s="87"/>
+      <c r="Y18" s="97"/>
       <c r="Z18" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AA18" s="87" t="s">
+      <c r="AA18" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="AB18" s="87"/>
+      <c r="AB18" s="97"/>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
@@ -3678,7 +5518,7 @@
       <c r="M19">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="N19" s="89">
+      <c r="N19" s="41">
         <v>0.48802083333333335</v>
       </c>
       <c r="O19" s="20">
@@ -3692,7 +5532,7 @@
       </c>
       <c r="V19" s="20"/>
       <c r="W19" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X19" s="10">
         <f>AA13-X13</f>
@@ -3702,7 +5542,7 @@
         <v>26</v>
       </c>
       <c r="Z19" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AA19" s="10">
         <f>SQRT(X13)</f>
@@ -3724,7 +5564,7 @@
       </c>
       <c r="E20" s="13"/>
       <c r="G20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H20">
         <v>7512430.8080000002</v>
@@ -3736,7 +5576,7 @@
         <v>621.36900000000003</v>
       </c>
       <c r="K20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L20">
         <v>2.9000000000000001E-2</v>
@@ -3744,7 +5584,7 @@
       <c r="M20">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="N20" s="89">
+      <c r="N20" s="41">
         <v>0.4888657407407408</v>
       </c>
       <c r="O20" s="20">
@@ -3758,7 +5598,7 @@
       </c>
       <c r="V20" s="20"/>
       <c r="W20" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X20" s="10">
         <f>AA14-X14</f>
@@ -3768,7 +5608,7 @@
         <v>26</v>
       </c>
       <c r="Z20" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AA20" s="10">
         <f>SQRT(X14)</f>
@@ -3790,7 +5630,7 @@
       </c>
       <c r="E21" s="13"/>
       <c r="G21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H21">
         <v>7512430.932</v>
@@ -3807,7 +5647,7 @@
       <c r="M21">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="N21" s="89">
+      <c r="N21" s="41">
         <v>0.48959490740740735</v>
       </c>
       <c r="O21" s="20">
@@ -3821,7 +5661,7 @@
       </c>
       <c r="V21" s="20"/>
       <c r="W21" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="X21" s="10">
         <f>AA15-X15</f>
@@ -3831,7 +5671,7 @@
         <v>26</v>
       </c>
       <c r="Z21" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA21" s="10">
         <f>SQRT(X15)</f>
@@ -3853,7 +5693,7 @@
       </c>
       <c r="E22" s="13"/>
       <c r="G22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H22">
         <v>7512460.0310000004</v>
@@ -3865,7 +5705,7 @@
         <v>620.03499999999997</v>
       </c>
       <c r="K22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L22">
         <v>1.0999999999999999E-2</v>
@@ -3873,7 +5713,7 @@
       <c r="M22">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="N22" s="89">
+      <c r="N22" s="41">
         <v>0.49056712962962962</v>
       </c>
       <c r="O22" s="20">
@@ -3918,7 +5758,7 @@
       </c>
       <c r="E23" s="13"/>
       <c r="G23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H23">
         <v>7512487.7889999999</v>
@@ -3930,7 +5770,7 @@
         <v>618.822</v>
       </c>
       <c r="K23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L23">
         <v>1.2999999999999999E-2</v>
@@ -3938,7 +5778,7 @@
       <c r="M23">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="N23" s="89">
+      <c r="N23" s="41">
         <v>0.49172453703703706</v>
       </c>
       <c r="O23" s="20">
@@ -3963,7 +5803,7 @@
       </c>
       <c r="E24" s="13"/>
       <c r="G24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H24">
         <v>7512512.0049999999</v>
@@ -3975,7 +5815,7 @@
         <v>617.79300000000001</v>
       </c>
       <c r="K24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L24">
         <v>1.4999999999999999E-2</v>
@@ -3983,7 +5823,7 @@
       <c r="M24">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="N24" s="89">
+      <c r="N24" s="41">
         <v>0.49251157407407403</v>
       </c>
       <c r="O24" s="20">
@@ -3998,7 +5838,7 @@
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H25">
         <v>7512519.1670000004</v>
@@ -4010,7 +5850,7 @@
         <v>617.524</v>
       </c>
       <c r="K25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L25">
         <v>2.5999999999999999E-2</v>
@@ -4018,7 +5858,7 @@
       <c r="M25">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="N25" s="89">
+      <c r="N25" s="41">
         <v>0.49355324074074075</v>
       </c>
       <c r="O25" s="20">
@@ -4030,26 +5870,26 @@
       <c r="Q25">
         <v>4.7045000000000002E-4</v>
       </c>
-      <c r="W25" s="86" t="s">
+      <c r="W25" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="X25" s="96"/>
+      <c r="Y25" s="96"/>
+      <c r="Z25" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="X25" s="86"/>
-      <c r="Y25" s="86"/>
-      <c r="Z25" s="86" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA25" s="86"/>
-      <c r="AB25" s="86"/>
+      <c r="AA25" s="96"/>
+      <c r="AB25" s="96"/>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B26" s="86" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
+      <c r="B26" s="96" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
       <c r="G26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H26">
         <v>7512519.2439999999</v>
@@ -4066,7 +5906,7 @@
       <c r="M26">
         <v>0.03</v>
       </c>
-      <c r="N26" s="89">
+      <c r="N26" s="41">
         <v>0.49409722222222219</v>
       </c>
       <c r="O26" s="20">
@@ -4081,17 +5921,17 @@
       <c r="W26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="X26" s="87" t="s">
+      <c r="X26" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="Y26" s="87"/>
+      <c r="Y26" s="97"/>
       <c r="Z26" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AA26" s="87" t="s">
+      <c r="AA26" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="AB26" s="87"/>
+      <c r="AB26" s="97"/>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B27" s="26" t="s">
@@ -4107,7 +5947,7 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H27">
         <v>7512516.1490000002</v>
@@ -4119,7 +5959,7 @@
         <v>618.12</v>
       </c>
       <c r="K27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L27">
         <v>3.6999999999999998E-2</v>
@@ -4127,7 +5967,7 @@
       <c r="M27">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="N27" s="89">
+      <c r="N27" s="41">
         <v>0.49508101851851855</v>
       </c>
       <c r="O27" s="20">
@@ -4140,7 +5980,7 @@
         <v>4.7061999999999999E-4</v>
       </c>
       <c r="W27" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X27" s="10">
         <v>1916</v>
@@ -4149,7 +5989,7 @@
         <v>26</v>
       </c>
       <c r="Z27" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AA27" s="10">
         <v>1929.1030000000001</v>
@@ -4170,7 +6010,7 @@
       </c>
       <c r="E28" s="13"/>
       <c r="G28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H28">
         <v>7512516.0800000001</v>
@@ -4182,7 +6022,7 @@
         <v>618.17899999999997</v>
       </c>
       <c r="K28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L28">
         <v>3.7999999999999999E-2</v>
@@ -4190,7 +6030,7 @@
       <c r="M28">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="N28" s="89">
+      <c r="N28" s="41">
         <v>0.4954513888888889</v>
       </c>
       <c r="O28" s="20">
@@ -4203,7 +6043,7 @@
         <v>4.7043999999999997E-4</v>
       </c>
       <c r="W28" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X28" s="10">
         <v>276</v>
@@ -4212,7 +6052,7 @@
         <v>26</v>
       </c>
       <c r="Z28" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AA28" s="10">
         <v>276.19099999999997</v>
@@ -4233,7 +6073,7 @@
       </c>
       <c r="E29" s="13"/>
       <c r="G29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H29">
         <v>7512457.3799999999</v>
@@ -4250,7 +6090,7 @@
       <c r="M29">
         <v>3.1E-2</v>
       </c>
-      <c r="N29" s="89">
+      <c r="N29" s="41">
         <v>0.54659722222222229</v>
       </c>
       <c r="O29" s="20">
@@ -4263,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X29" s="10">
         <v>1794</v>
@@ -4272,7 +6112,7 @@
         <v>26</v>
       </c>
       <c r="Z29" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA29" s="10">
         <v>1794.386</v>
@@ -4293,7 +6133,7 @@
       </c>
       <c r="E30" s="13"/>
       <c r="G30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H30">
         <v>7512470.8360000001</v>
@@ -4310,7 +6150,7 @@
       <c r="M30">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="N30" s="89">
+      <c r="N30" s="41">
         <v>0.54716435185185186</v>
       </c>
       <c r="O30" s="20">
@@ -4355,7 +6195,7 @@
       </c>
       <c r="E31" s="13"/>
       <c r="G31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H31">
         <v>7512506.8269999996</v>
@@ -4372,7 +6212,7 @@
       <c r="M31">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="N31" s="89">
+      <c r="N31" s="41">
         <v>0.54832175925925919</v>
       </c>
       <c r="O31" s="20">
@@ -4384,16 +6224,16 @@
       <c r="Q31">
         <v>0</v>
       </c>
-      <c r="W31" s="86" t="s">
+      <c r="W31" s="96" t="s">
+        <v>109</v>
+      </c>
+      <c r="X31" s="96"/>
+      <c r="Y31" s="96"/>
+      <c r="Z31" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="X31" s="86"/>
-      <c r="Y31" s="86"/>
-      <c r="Z31" s="86" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA31" s="86"/>
-      <c r="AB31" s="86"/>
+      <c r="AA31" s="96"/>
+      <c r="AB31" s="96"/>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B32" s="9">
@@ -4407,7 +6247,7 @@
       </c>
       <c r="E32" s="13"/>
       <c r="G32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H32">
         <v>7512515.3959999997</v>
@@ -4419,7 +6259,7 @@
         <v>618.39</v>
       </c>
       <c r="K32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L32">
         <v>0.04</v>
@@ -4427,7 +6267,7 @@
       <c r="M32">
         <v>7.8E-2</v>
       </c>
-      <c r="N32" s="89">
+      <c r="N32" s="41">
         <v>0.55230324074074078</v>
       </c>
       <c r="O32" s="20">
@@ -4442,17 +6282,17 @@
       <c r="W32" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="X32" s="87" t="s">
+      <c r="X32" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="Y32" s="87"/>
+      <c r="Y32" s="97"/>
       <c r="Z32" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AA32" s="87" t="s">
+      <c r="AA32" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="AB32" s="87"/>
+      <c r="AB32" s="97"/>
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B33" s="9">
@@ -4466,7 +6306,7 @@
       </c>
       <c r="E33" s="13"/>
       <c r="G33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H33">
         <v>7512512.5489999996</v>
@@ -4478,7 +6318,7 @@
         <v>618.70299999999997</v>
       </c>
       <c r="K33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L33">
         <v>1.6E-2</v>
@@ -4486,7 +6326,7 @@
       <c r="M33">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="N33" s="89">
+      <c r="N33" s="41">
         <v>0.55300925925925926</v>
       </c>
       <c r="O33" s="20">
@@ -4499,7 +6339,7 @@
         <v>4.706E-4</v>
       </c>
       <c r="W33" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X33" s="10">
         <f>AA27-X27</f>
@@ -4509,7 +6349,7 @@
         <v>26</v>
       </c>
       <c r="Z33" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AA33" s="10">
         <f>SQRT(X27)</f>
@@ -4531,7 +6371,7 @@
       </c>
       <c r="E34" s="13"/>
       <c r="G34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H34">
         <v>7512495.6569999997</v>
@@ -4543,7 +6383,7 @@
         <v>619.65499999999997</v>
       </c>
       <c r="K34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L34">
         <v>1.6E-2</v>
@@ -4551,7 +6391,7 @@
       <c r="M34">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="N34" s="89">
+      <c r="N34" s="41">
         <v>0.5543865740740741</v>
       </c>
       <c r="O34" s="20">
@@ -4564,7 +6404,7 @@
         <v>3.1202999999999998E-4</v>
       </c>
       <c r="W34" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X34" s="10">
         <f>AA28-X28</f>
@@ -4574,7 +6414,7 @@
         <v>26</v>
       </c>
       <c r="Z34" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AA34" s="10">
         <f>SQRT(X28)</f>
@@ -4596,7 +6436,7 @@
       </c>
       <c r="E35" s="13"/>
       <c r="G35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H35">
         <v>7512474.5329999998</v>
@@ -4608,7 +6448,7 @@
         <v>620.58799999999997</v>
       </c>
       <c r="K35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L35">
         <v>2.5000000000000001E-2</v>
@@ -4616,7 +6456,7 @@
       <c r="M35">
         <v>0.03</v>
       </c>
-      <c r="N35" s="89">
+      <c r="N35" s="41">
         <v>0.55561342592592589</v>
       </c>
       <c r="O35" s="20">
@@ -4629,7 +6469,7 @@
         <v>3.1203999999999997E-4</v>
       </c>
       <c r="W35" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X35" s="10">
         <f>AA29-X29</f>
@@ -4639,7 +6479,7 @@
         <v>26</v>
       </c>
       <c r="Z35" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AA35" s="10">
         <f>SQRT(X29)</f>
@@ -4661,7 +6501,7 @@
       </c>
       <c r="E36" s="13"/>
       <c r="G36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H36">
         <v>7512422.0520000001</v>
@@ -4673,7 +6513,7 @@
         <v>622.98500000000001</v>
       </c>
       <c r="K36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L36">
         <v>3.1E-2</v>
@@ -4681,7 +6521,7 @@
       <c r="M36">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="N36" s="89">
+      <c r="N36" s="41">
         <v>0.55709490740740741</v>
       </c>
       <c r="O36" s="20">
@@ -4716,7 +6556,7 @@
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H37">
         <v>7512361.4189999998</v>
@@ -4728,7 +6568,7 @@
         <v>624.64400000000001</v>
       </c>
       <c r="K37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L37">
         <v>0.03</v>
@@ -4736,7 +6576,7 @@
       <c r="M37">
         <v>0.05</v>
       </c>
-      <c r="N37" s="89">
+      <c r="N37" s="41">
         <v>0.55984953703703699</v>
       </c>
       <c r="O37" s="20">
@@ -4750,14 +6590,14 @@
       </c>
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B38" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
+      <c r="B38" s="96" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
       <c r="G38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H38">
         <v>7512362.0049999999</v>
@@ -4774,7 +6614,7 @@
       <c r="M38">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="N38" s="89">
+      <c r="N38" s="41">
         <v>0.56016203703703704</v>
       </c>
       <c r="O38" s="20">
@@ -4801,7 +6641,7 @@
         <v>3</v>
       </c>
       <c r="G39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H39">
         <v>7512359.483</v>
@@ -4813,7 +6653,7 @@
         <v>624.11900000000003</v>
       </c>
       <c r="K39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L39">
         <v>1.7999999999999999E-2</v>
@@ -4821,7 +6661,7 @@
       <c r="M39">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="N39" s="89">
+      <c r="N39" s="41">
         <v>0.56112268518518515</v>
       </c>
       <c r="O39" s="20">
@@ -4833,6 +6673,16 @@
       <c r="Q39">
         <v>3.1179999999999999E-4</v>
       </c>
+      <c r="W39" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="X39" s="96"/>
+      <c r="Y39" s="96"/>
+      <c r="Z39" s="96" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA39" s="96"/>
+      <c r="AB39" s="96"/>
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B40" s="9">
@@ -4846,7 +6696,7 @@
       </c>
       <c r="E40" s="13"/>
       <c r="G40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H40">
         <v>7512385.2570000002</v>
@@ -4858,7 +6708,7 @@
         <v>623.39499999999998</v>
       </c>
       <c r="K40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L40">
         <v>3.4000000000000002E-2</v>
@@ -4866,7 +6716,7 @@
       <c r="M40">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="N40" s="89">
+      <c r="N40" s="41">
         <v>0.56202546296296296</v>
       </c>
       <c r="O40" s="20">
@@ -4878,6 +6728,20 @@
       <c r="Q40">
         <v>3.2116000000000002E-4</v>
       </c>
+      <c r="W40" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="X40" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y40" s="97"/>
+      <c r="Z40" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA40" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB40" s="97"/>
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B41" s="9">
@@ -4891,7 +6755,7 @@
       </c>
       <c r="E41" s="13"/>
       <c r="G41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H41">
         <v>7512430.8470000001</v>
@@ -4903,7 +6767,7 @@
         <v>621.39700000000005</v>
       </c>
       <c r="K41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L41">
         <v>1.7000000000000001E-2</v>
@@ -4911,7 +6775,7 @@
       <c r="M41">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="N41" s="89">
+      <c r="N41" s="41">
         <v>0.56305555555555553</v>
       </c>
       <c r="O41" s="20">
@@ -4922,6 +6786,25 @@
       </c>
       <c r="Q41">
         <v>3.2117000000000002E-4</v>
+      </c>
+      <c r="W41" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="X41" s="10">
+        <v>2431.9810000000002</v>
+      </c>
+      <c r="Y41" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z41" s="99" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA41" s="102">
+        <f>X44</f>
+        <v>6131.5130000000008</v>
+      </c>
+      <c r="AB41" s="99" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.25">
@@ -4936,7 +6819,7 @@
       </c>
       <c r="E42" s="13"/>
       <c r="G42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H42">
         <v>7512460.0209999997</v>
@@ -4948,7 +6831,7 @@
         <v>620.08100000000002</v>
       </c>
       <c r="K42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L42">
         <v>1.7999999999999999E-2</v>
@@ -4956,7 +6839,7 @@
       <c r="M42">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="N42" s="89">
+      <c r="N42" s="41">
         <v>0.5634837962962963</v>
       </c>
       <c r="O42" s="20">
@@ -4967,6 +6850,22 @@
       </c>
       <c r="Q42">
         <v>3.2118000000000001E-4</v>
+      </c>
+      <c r="W42" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="X42" s="10">
+        <v>2199.4490000000001</v>
+      </c>
+      <c r="Y42" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z42" s="100"/>
+      <c r="AA42" s="100">
+        <v>2199.4490000000001</v>
+      </c>
+      <c r="AB42" s="100" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.25">
@@ -4981,7 +6880,7 @@
       </c>
       <c r="E43" s="13"/>
       <c r="G43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H43">
         <v>7512422.1310000001</v>
@@ -4993,7 +6892,7 @@
         <v>629.40700000000004</v>
       </c>
       <c r="K43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L43">
         <v>1.4E-2</v>
@@ -5001,7 +6900,7 @@
       <c r="M43">
         <v>3.9E-2</v>
       </c>
-      <c r="N43" s="89">
+      <c r="N43" s="41">
         <v>0.56905092592592588</v>
       </c>
       <c r="O43" s="20">
@@ -5012,6 +6911,22 @@
       </c>
       <c r="Q43">
         <v>4.7127999999999997E-4</v>
+      </c>
+      <c r="W43" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X43" s="10">
+        <v>1500.0830000000001</v>
+      </c>
+      <c r="Y43" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z43" s="101"/>
+      <c r="AA43" s="101">
+        <v>1500.0830000000001</v>
+      </c>
+      <c r="AB43" s="101" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.25">
@@ -5026,7 +6941,7 @@
       </c>
       <c r="E44" s="13"/>
       <c r="G44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H44">
         <v>7512421.966</v>
@@ -5038,7 +6953,7 @@
         <v>629.46900000000005</v>
       </c>
       <c r="K44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L44">
         <v>2.4E-2</v>
@@ -5046,7 +6961,7 @@
       <c r="M44">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="N44" s="89">
+      <c r="N44" s="41">
         <v>0.56987268518518519</v>
       </c>
       <c r="O44" s="20">
@@ -5057,6 +6972,26 @@
       </c>
       <c r="Q44">
         <v>3.1147E-4</v>
+      </c>
+      <c r="W44" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="X44" s="17">
+        <f>SUM(X41:X43)</f>
+        <v>6131.5130000000008</v>
+      </c>
+      <c r="Y44" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z44" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA44" s="17">
+        <f>AA41</f>
+        <v>6131.5130000000008</v>
+      </c>
+      <c r="AB44" s="42" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.25">
@@ -5071,7 +7006,7 @@
       </c>
       <c r="E45" s="13"/>
       <c r="G45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H45">
         <v>7512423.074</v>
@@ -5083,7 +7018,7 @@
         <v>630.61800000000005</v>
       </c>
       <c r="K45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L45">
         <v>1.2E-2</v>
@@ -5091,7 +7026,7 @@
       <c r="M45">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="N45" s="89">
+      <c r="N45" s="41">
         <v>0.57155092592592593</v>
       </c>
       <c r="O45" s="20">
@@ -5116,7 +7051,7 @@
       </c>
       <c r="E46" s="13"/>
       <c r="G46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H46">
         <v>7512420.9929999998</v>
@@ -5128,7 +7063,7 @@
         <v>630.19399999999996</v>
       </c>
       <c r="K46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L46">
         <v>1.4999999999999999E-2</v>
@@ -5136,7 +7071,7 @@
       <c r="M46">
         <v>2.7E-2</v>
       </c>
-      <c r="N46" s="89">
+      <c r="N46" s="41">
         <v>0.57251157407407405</v>
       </c>
       <c r="O46" s="20">
@@ -5148,6 +7083,16 @@
       <c r="Q46">
         <v>3.1136E-4</v>
       </c>
+      <c r="W46" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="X46" s="96"/>
+      <c r="Y46" s="96"/>
+      <c r="Z46" s="96" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA46" s="96"/>
+      <c r="AB46" s="96"/>
     </row>
     <row r="47" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B47" s="9">
@@ -5161,7 +7106,7 @@
       </c>
       <c r="E47" s="13"/>
       <c r="G47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H47">
         <v>7512388.267</v>
@@ -5178,7 +7123,7 @@
       <c r="M47">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="N47" s="89">
+      <c r="N47" s="41">
         <v>0.57373842592592594</v>
       </c>
       <c r="O47" s="20">
@@ -5190,6 +7135,20 @@
       <c r="Q47">
         <v>0</v>
       </c>
+      <c r="W47" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="X47" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y47" s="97"/>
+      <c r="Z47" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA47" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB47" s="97"/>
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B48" s="9">
@@ -5203,7 +7162,7 @@
       </c>
       <c r="E48" s="13"/>
       <c r="G48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H48">
         <v>7512386.7050000001</v>
@@ -5215,7 +7174,7 @@
         <v>632.62900000000002</v>
       </c>
       <c r="K48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L48">
         <v>1.6E-2</v>
@@ -5223,7 +7182,7 @@
       <c r="M48">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="N48" s="89">
+      <c r="N48" s="41">
         <v>0.57434027777777774</v>
       </c>
       <c r="O48" s="20">
@@ -5235,10 +7194,29 @@
       <c r="Q48">
         <v>3.1137E-4</v>
       </c>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="W48" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="X48" s="10">
+        <v>1929.1030000000001</v>
+      </c>
+      <c r="Y48" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z48" s="99" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA48" s="102">
+        <f>X51</f>
+        <v>3999.68</v>
+      </c>
+      <c r="AB48" s="99" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="2:28" x14ac:dyDescent="0.25">
       <c r="G49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H49">
         <v>7512347.8629999999</v>
@@ -5250,7 +7228,7 @@
         <v>634.13099999999997</v>
       </c>
       <c r="K49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L49">
         <v>0.02</v>
@@ -5258,7 +7236,7 @@
       <c r="M49">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="N49" s="89">
+      <c r="N49" s="41">
         <v>0.57589120370370372</v>
       </c>
       <c r="O49" s="20">
@@ -5270,16 +7248,34 @@
       <c r="Q49">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B50" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" s="86"/>
-      <c r="D50" s="86"/>
-      <c r="E50" s="86"/>
+      <c r="W49" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="X49" s="10">
+        <v>276.19099999999997</v>
+      </c>
+      <c r="Y49" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z49" s="100" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA49" s="100">
+        <v>276.19099999999997</v>
+      </c>
+      <c r="AB49" s="100" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B50" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="96"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="96"/>
       <c r="G50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H50">
         <v>7512347.5060000001</v>
@@ -5291,7 +7287,7 @@
         <v>633.33299999999997</v>
       </c>
       <c r="K50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L50">
         <v>2.5000000000000001E-2</v>
@@ -5299,7 +7295,7 @@
       <c r="M50">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="N50" s="89">
+      <c r="N50" s="41">
         <v>0.57688657407407407</v>
       </c>
       <c r="O50" s="20">
@@ -5311,8 +7307,26 @@
       <c r="Q50">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="W50" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="X50" s="10">
+        <v>1794.386</v>
+      </c>
+      <c r="Y50" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z50" s="101" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA50" s="101">
+        <v>1794.386</v>
+      </c>
+      <c r="AB50" s="101" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B51" s="26" t="s">
         <v>0</v>
       </c>
@@ -5322,11 +7336,11 @@
       <c r="D51" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="61" t="s">
+      <c r="E51" s="39" t="s">
         <v>3</v>
       </c>
       <c r="G51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H51">
         <v>7512341.7120000003</v>
@@ -5338,7 +7352,7 @@
         <v>635.06700000000001</v>
       </c>
       <c r="K51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L51">
         <v>1.6E-2</v>
@@ -5346,7 +7360,7 @@
       <c r="M51">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="N51" s="89">
+      <c r="N51" s="41">
         <v>0.57934027777777775</v>
       </c>
       <c r="O51" s="20">
@@ -5358,8 +7372,28 @@
       <c r="Q51">
         <v>3.1137999999999999E-4</v>
       </c>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="W51" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="X51" s="17">
+        <f>SUM(X48:X50)</f>
+        <v>3999.68</v>
+      </c>
+      <c r="Y51" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z51" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA51" s="17">
+        <f>AA48</f>
+        <v>3999.68</v>
+      </c>
+      <c r="AB51" s="42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B52" s="9">
         <v>31180</v>
       </c>
@@ -5371,7 +7405,7 @@
       </c>
       <c r="E52" s="13"/>
       <c r="G52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H52">
         <v>7512340.9129999997</v>
@@ -5388,7 +7422,7 @@
       <c r="M52">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="N52" s="89">
+      <c r="N52" s="41">
         <v>0.57991898148148147</v>
       </c>
       <c r="O52" s="20">
@@ -5401,7 +7435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B53" s="9">
         <v>31212</v>
       </c>
@@ -5413,7 +7447,7 @@
       </c>
       <c r="E53" s="13"/>
       <c r="G53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H53">
         <v>7512337.7699999996</v>
@@ -5430,7 +7464,7 @@
       <c r="M53">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="N53" s="89">
+      <c r="N53" s="41">
         <v>0.58064814814814814</v>
       </c>
       <c r="O53" s="20">
@@ -5443,7 +7477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B54" s="9">
         <v>32116</v>
       </c>
@@ -5455,7 +7489,7 @@
       </c>
       <c r="E54" s="13"/>
       <c r="G54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H54">
         <v>7512312.557</v>
@@ -5467,7 +7501,7 @@
         <v>635.47</v>
       </c>
       <c r="K54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L54">
         <v>4.3999999999999997E-2</v>
@@ -5475,7 +7509,7 @@
       <c r="M54">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="N54" s="89">
+      <c r="N54" s="41">
         <v>0.58172453703703708</v>
       </c>
       <c r="O54" s="20">
@@ -5488,7 +7522,7 @@
         <v>3.1138999999999998E-4</v>
       </c>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B55" s="9">
         <v>32117</v>
       </c>
@@ -5500,7 +7534,7 @@
       </c>
       <c r="E55" s="13"/>
       <c r="G55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H55">
         <v>7512264.29</v>
@@ -5512,7 +7546,7 @@
         <v>637.76199999999994</v>
       </c>
       <c r="K55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L55">
         <v>2.8000000000000001E-2</v>
@@ -5520,7 +7554,7 @@
       <c r="M55">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="N55" s="89">
+      <c r="N55" s="41">
         <v>0.58299768518518513</v>
       </c>
       <c r="O55" s="20">
@@ -5533,7 +7567,7 @@
         <v>3.1139999999999998E-4</v>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B56" s="9">
         <v>32118</v>
       </c>
@@ -5545,7 +7579,7 @@
       </c>
       <c r="E56" s="13"/>
       <c r="G56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H56">
         <v>7512259.8770000003</v>
@@ -5557,7 +7591,7 @@
         <v>638.24400000000003</v>
       </c>
       <c r="K56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L56">
         <v>3.5999999999999997E-2</v>
@@ -5565,7 +7599,7 @@
       <c r="M56">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="N56" s="89">
+      <c r="N56" s="41">
         <v>0.58471064814814822</v>
       </c>
       <c r="O56" s="20">
@@ -5578,7 +7612,7 @@
         <v>3.0685E-4</v>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B57" s="9">
         <v>32119</v>
       </c>
@@ -5590,7 +7624,7 @@
       </c>
       <c r="E57" s="13"/>
       <c r="G57" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H57">
         <v>7512276.5389999999</v>
@@ -5602,7 +7636,7 @@
         <v>635.87599999999998</v>
       </c>
       <c r="K57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L57">
         <v>1.2E-2</v>
@@ -5610,7 +7644,7 @@
       <c r="M57">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="N57" s="89">
+      <c r="N57" s="41">
         <v>0.58849537037037036</v>
       </c>
       <c r="O57" s="20">
@@ -5623,7 +7657,7 @@
         <v>4.6937999999999998E-4</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B58" s="9">
         <v>32120</v>
       </c>
@@ -5635,7 +7669,7 @@
       </c>
       <c r="E58" s="13"/>
       <c r="G58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H58">
         <v>7512290.0039999997</v>
@@ -5647,7 +7681,7 @@
         <v>635.10199999999998</v>
       </c>
       <c r="K58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L58">
         <v>3.3000000000000002E-2</v>
@@ -5655,7 +7689,7 @@
       <c r="M58">
         <v>0.04</v>
       </c>
-      <c r="N58" s="89">
+      <c r="N58" s="41">
         <v>0.58969907407407407</v>
       </c>
       <c r="O58" s="20">
@@ -5668,7 +7702,7 @@
         <v>3.1165000000000001E-4</v>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B59" s="9">
         <v>32124</v>
       </c>
@@ -5680,7 +7714,7 @@
       </c>
       <c r="E59" s="13"/>
       <c r="G59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H59">
         <v>7512336.4179999996</v>
@@ -5692,7 +7726,7 @@
         <v>633.49699999999996</v>
       </c>
       <c r="K59" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L59">
         <v>3.5999999999999997E-2</v>
@@ -5700,7 +7734,7 @@
       <c r="M59">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="N59" s="89">
+      <c r="N59" s="41">
         <v>0.59055555555555561</v>
       </c>
       <c r="O59" s="20">
@@ -5713,7 +7747,7 @@
         <v>3.1166000000000001E-4</v>
       </c>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B60" s="9">
         <v>32125</v>
       </c>
@@ -5725,7 +7759,7 @@
       </c>
       <c r="E60" s="13"/>
       <c r="G60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H60">
         <v>7512339.0789999999</v>
@@ -5737,7 +7771,7 @@
         <v>633.39700000000005</v>
       </c>
       <c r="K60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L60">
         <v>2.1999999999999999E-2</v>
@@ -5745,7 +7779,7 @@
       <c r="M60">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="N60" s="89">
+      <c r="N60" s="41">
         <v>0.59134259259259259</v>
       </c>
       <c r="O60" s="20">
@@ -5758,7 +7792,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B61" s="9">
         <v>47044</v>
       </c>
@@ -5770,7 +7804,7 @@
       </c>
       <c r="E61" s="13"/>
       <c r="G61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H61">
         <v>7512343.9790000003</v>
@@ -5782,7 +7816,7 @@
         <v>633.178</v>
       </c>
       <c r="K61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L61">
         <v>1.4E-2</v>
@@ -5790,7 +7824,7 @@
       <c r="M61">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="N61" s="89">
+      <c r="N61" s="41">
         <v>0.59174768518518517</v>
       </c>
       <c r="O61" s="20">
@@ -5803,7 +7837,7 @@
         <v>4.7024000000000002E-4</v>
       </c>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B62" s="9">
         <v>47045</v>
       </c>
@@ -5815,7 +7849,7 @@
       </c>
       <c r="E62" s="13"/>
       <c r="G62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H62">
         <v>7512380.8119999999</v>
@@ -5827,7 +7861,7 @@
         <v>631.60799999999995</v>
       </c>
       <c r="K62" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L62">
         <v>2.1999999999999999E-2</v>
@@ -5835,7 +7869,7 @@
       <c r="M62">
         <v>3.1E-2</v>
       </c>
-      <c r="N62" s="89">
+      <c r="N62" s="41">
         <v>0.5926851851851852</v>
       </c>
       <c r="O62" s="20">
@@ -5848,7 +7882,7 @@
         <v>3.1147999999999999E-4</v>
       </c>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B63" s="9">
         <v>47046</v>
       </c>
@@ -5860,7 +7894,7 @@
       </c>
       <c r="E63" s="13"/>
       <c r="G63" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H63">
         <v>7512412.4780000001</v>
@@ -5872,7 +7906,7 @@
         <v>629.97400000000005</v>
       </c>
       <c r="K63" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L63">
         <v>2.1000000000000001E-2</v>
@@ -5880,7 +7914,7 @@
       <c r="M63">
         <v>2.7E-2</v>
       </c>
-      <c r="N63" s="89">
+      <c r="N63" s="41">
         <v>0.59357638888888886</v>
       </c>
       <c r="O63" s="20">
@@ -5893,7 +7927,7 @@
         <v>4.7022999999999998E-4</v>
       </c>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B64" s="9">
         <v>47047</v>
       </c>
@@ -5905,7 +7939,7 @@
       </c>
       <c r="E64" s="13"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="9">
         <v>47048</v>
       </c>
@@ -5917,7 +7951,7 @@
       </c>
       <c r="E65" s="13"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="9">
         <v>47049</v>
       </c>
@@ -5929,7 +7963,7 @@
       </c>
       <c r="E66" s="13"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="9">
         <v>47062</v>
       </c>
@@ -5941,15 +7975,15 @@
       </c>
       <c r="E67" s="13"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69" s="86"/>
-      <c r="D69" s="86"/>
-      <c r="E69" s="86"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="96"/>
+      <c r="D69" s="96"/>
+      <c r="E69" s="96"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="26" t="s">
         <v>0</v>
       </c>
@@ -5959,11 +7993,14 @@
       <c r="D70" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E70" s="61" t="s">
+      <c r="E70" s="39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="9">
         <v>31203</v>
       </c>
@@ -5974,8 +8011,23 @@
         <v>4687235.0429999996</v>
       </c>
       <c r="E71" s="13"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>31179</v>
+      </c>
+      <c r="K71">
+        <v>31179</v>
+      </c>
+      <c r="L71">
+        <v>7512361.4129999997</v>
+      </c>
+      <c r="M71">
+        <v>4687217.6770000001</v>
+      </c>
+      <c r="N71">
+        <v>624.64400000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="9">
         <v>31212</v>
       </c>
@@ -5986,8 +8038,23 @@
         <v>4687219.1030000001</v>
       </c>
       <c r="E72" s="13"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>31180</v>
+      </c>
+      <c r="K72">
+        <v>31180</v>
+      </c>
+      <c r="L72">
+        <v>7512359.4529999997</v>
+      </c>
+      <c r="M72">
+        <v>4687204.6179999998</v>
+      </c>
+      <c r="N72">
+        <v>624.11900000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="9">
         <v>31213</v>
       </c>
@@ -5998,8 +8065,23 @@
         <v>4687227.1030000001</v>
       </c>
       <c r="E73" s="13"/>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>31203</v>
+      </c>
+      <c r="K73">
+        <v>31203</v>
+      </c>
+      <c r="L73">
+        <v>7512495.6619999995</v>
+      </c>
+      <c r="M73">
+        <v>4687235.0429999996</v>
+      </c>
+      <c r="N73">
+        <v>619.65499999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="9">
         <v>47044</v>
       </c>
@@ -6010,8 +8092,23 @@
         <v>4687224.5520000001</v>
       </c>
       <c r="E74" s="13"/>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>31204</v>
+      </c>
+      <c r="K74">
+        <v>31204</v>
+      </c>
+      <c r="L74">
+        <v>7512474.5319999997</v>
+      </c>
+      <c r="M74">
+        <v>4687228.9840000002</v>
+      </c>
+      <c r="N74">
+        <v>620.58799999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="9">
         <v>47060</v>
       </c>
@@ -6022,8 +8119,23 @@
         <v>4687240.0760000004</v>
       </c>
       <c r="E75" s="13"/>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>31205</v>
+      </c>
+      <c r="K75">
+        <v>31205</v>
+      </c>
+      <c r="L75">
+        <v>7512422.0429999996</v>
+      </c>
+      <c r="M75">
+        <v>4687221.4450000003</v>
+      </c>
+      <c r="N75">
+        <v>622.98500000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="9">
         <v>47061</v>
       </c>
@@ -6034,8 +8146,23 @@
         <v>4687227.7640000004</v>
       </c>
       <c r="E76" s="13"/>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>31212</v>
+      </c>
+      <c r="K76">
+        <v>31212</v>
+      </c>
+      <c r="L76">
+        <v>7512499.9110000003</v>
+      </c>
+      <c r="M76">
+        <v>4687219.1030000001</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="9">
         <v>47062</v>
       </c>
@@ -6046,12 +8173,311 @@
         <v>4687224.5520000001</v>
       </c>
       <c r="E77" s="13"/>
+      <c r="G77">
+        <v>31213</v>
+      </c>
+      <c r="K77">
+        <v>31213</v>
+      </c>
+      <c r="L77">
+        <v>7512498.4309999999</v>
+      </c>
+      <c r="M77">
+        <v>4687227.1030000001</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>32116</v>
+      </c>
+      <c r="K78">
+        <v>32116</v>
+      </c>
+      <c r="L78">
+        <v>7512385.273</v>
+      </c>
+      <c r="M78">
+        <v>4687195.3669999996</v>
+      </c>
+      <c r="N78">
+        <v>623.39499999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>32117</v>
+      </c>
+      <c r="K79">
+        <v>32117</v>
+      </c>
+      <c r="L79">
+        <v>7512430.8119999999</v>
+      </c>
+      <c r="M79">
+        <v>4687198.6859999998</v>
+      </c>
+      <c r="N79">
+        <v>621.39700000000005</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <v>32118</v>
+      </c>
+      <c r="K80">
+        <v>32118</v>
+      </c>
+      <c r="L80">
+        <v>7512460.0520000001</v>
+      </c>
+      <c r="M80">
+        <v>4687200.2850000001</v>
+      </c>
+      <c r="N80">
+        <v>620.08100000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>32119</v>
+      </c>
+      <c r="K81">
+        <v>32119</v>
+      </c>
+      <c r="L81">
+        <v>7512487.7410000004</v>
+      </c>
+      <c r="M81">
+        <v>4687204.2740000002</v>
+      </c>
+      <c r="N81">
+        <v>618.822</v>
+      </c>
+    </row>
+    <row r="82" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>32120</v>
+      </c>
+      <c r="K82">
+        <v>32120</v>
+      </c>
+      <c r="L82">
+        <v>7512512.0410000002</v>
+      </c>
+      <c r="M82">
+        <v>4687209.3930000002</v>
+      </c>
+      <c r="N82">
+        <v>617.79300000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>32124</v>
+      </c>
+      <c r="K83">
+        <v>32124</v>
+      </c>
+      <c r="L83">
+        <v>7512456.2220000001</v>
+      </c>
+      <c r="M83">
+        <v>4687210.8949999996</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <v>32125</v>
+      </c>
+      <c r="K84">
+        <v>32125</v>
+      </c>
+      <c r="L84">
+        <v>7512474.9519999996</v>
+      </c>
+      <c r="M84">
+        <v>4687214.0939999996</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <v>47044</v>
+      </c>
+      <c r="K85">
+        <v>47044</v>
+      </c>
+      <c r="L85">
+        <v>7512516.1710000001</v>
+      </c>
+      <c r="M85">
+        <v>4687224.5520000001</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>47045</v>
+      </c>
+      <c r="K86">
+        <v>47045</v>
+      </c>
+      <c r="L86">
+        <v>7512519.2089999998</v>
+      </c>
+      <c r="M86">
+        <v>4687211.4369999999</v>
+      </c>
+      <c r="N86">
+        <v>617.524</v>
+      </c>
+    </row>
+    <row r="87" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <v>47046</v>
+      </c>
+      <c r="K87">
+        <v>47046</v>
+      </c>
+      <c r="L87">
+        <v>7512375.3609999996</v>
+      </c>
+      <c r="M87">
+        <v>4687194.6670000004</v>
+      </c>
+      <c r="N87">
+        <v>623.81799999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <v>47047</v>
+      </c>
+      <c r="K88">
+        <v>47047</v>
+      </c>
+      <c r="L88">
+        <v>7512370.3430000003</v>
+      </c>
+      <c r="M88">
+        <v>4687194.9450000003</v>
+      </c>
+      <c r="N88">
+        <v>624.95699999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G89">
+        <v>47048</v>
+      </c>
+      <c r="K89">
+        <v>47048</v>
+      </c>
+      <c r="L89">
+        <v>7512359.7479999997</v>
+      </c>
+      <c r="M89">
+        <v>4687195.4589999998</v>
+      </c>
+      <c r="N89">
+        <v>623.55999999999995</v>
+      </c>
+    </row>
+    <row r="90" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G90">
+        <v>47049</v>
+      </c>
+      <c r="K90">
+        <v>47049</v>
+      </c>
+      <c r="L90">
+        <v>7512356.9050000003</v>
+      </c>
+      <c r="M90">
+        <v>4687195.5650000004</v>
+      </c>
+      <c r="N90">
+        <v>623.43899999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G91">
+        <v>47060</v>
+      </c>
+      <c r="K91">
+        <v>47060</v>
+      </c>
+      <c r="L91">
+        <v>7512512.5460000001</v>
+      </c>
+      <c r="M91">
+        <v>4687240.0760000004</v>
+      </c>
+      <c r="N91">
+        <v>618.70299999999997</v>
+      </c>
+    </row>
+    <row r="92" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G92">
+        <v>47061</v>
+      </c>
+      <c r="K92">
+        <v>47061</v>
+      </c>
+      <c r="L92">
+        <v>7512515.4270000001</v>
+      </c>
+      <c r="M92">
+        <v>4687227.7640000004</v>
+      </c>
+      <c r="N92">
+        <v>618.39</v>
+      </c>
+    </row>
+    <row r="93" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G93">
+        <v>47062</v>
+      </c>
+      <c r="K93">
+        <v>47062</v>
+      </c>
+      <c r="L93">
+        <v>7512516.1710000001</v>
+      </c>
+      <c r="M93">
+        <v>4687224.5520000001</v>
+      </c>
+      <c r="N93">
+        <v>618.12</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="P25:P27">
     <sortCondition ref="P25"/>
   </sortState>
-  <mergeCells count="25">
+  <mergeCells count="39">
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="AA47:AB47"/>
+    <mergeCell ref="Z48:Z50"/>
+    <mergeCell ref="AA48:AA50"/>
+    <mergeCell ref="AB48:AB50"/>
+    <mergeCell ref="Z39:AB39"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="Z41:Z43"/>
+    <mergeCell ref="AA41:AA43"/>
+    <mergeCell ref="AB41:AB43"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:N2"/>
     <mergeCell ref="P2:U2"/>
@@ -6064,6 +8490,8 @@
     <mergeCell ref="B69:E69"/>
     <mergeCell ref="X12:Y12"/>
     <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="W46:Y46"/>
     <mergeCell ref="Z31:AB31"/>
     <mergeCell ref="X32:Y32"/>
     <mergeCell ref="AA32:AB32"/>
@@ -6083,7 +8511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E4:BX76"/>
   <sheetViews>
@@ -6094,225 +8522,225 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="5:76" x14ac:dyDescent="0.25">
-      <c r="E4" s="62">
+      <c r="E4" s="40">
         <v>7512091.7089999998</v>
       </c>
       <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>36</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>37</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>39</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>40</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>41</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>42</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>43</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>44</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>46</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>47</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>48</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>49</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>50</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>51</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>52</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>53</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>54</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>55</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>56</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>57</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>58</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>59</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>60</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>61</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>62</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>63</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>64</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>65</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>66</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>67</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>68</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
         <v>69</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AP4" t="s">
         <v>70</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AQ4" t="s">
         <v>71</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AR4" t="s">
         <v>72</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
         <v>73</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
         <v>74</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AU4" t="s">
         <v>75</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AV4" t="s">
         <v>76</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AW4" t="s">
         <v>77</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
         <v>78</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AY4" t="s">
         <v>79</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AZ4" t="s">
         <v>80</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
         <v>81</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BB4" t="s">
         <v>82</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BC4" t="s">
         <v>83</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BD4" t="s">
         <v>84</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BE4" t="s">
         <v>85</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BF4" t="s">
         <v>86</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BG4" t="s">
         <v>87</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BH4" t="s">
         <v>88</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BI4" t="s">
         <v>89</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BJ4" t="s">
         <v>90</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BK4" t="s">
         <v>91</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BL4" t="s">
         <v>92</v>
       </c>
-      <c r="BL4" t="s">
+      <c r="BM4" t="s">
         <v>93</v>
       </c>
-      <c r="BM4" t="s">
+      <c r="BN4" t="s">
         <v>94</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="BO4" t="s">
         <v>95</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BP4" t="s">
         <v>96</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BQ4" t="s">
         <v>97</v>
       </c>
-      <c r="BQ4" t="s">
+      <c r="BR4" t="s">
         <v>98</v>
       </c>
-      <c r="BR4" t="s">
+      <c r="BS4" t="s">
         <v>99</v>
       </c>
-      <c r="BS4" t="s">
+      <c r="BT4" t="s">
         <v>100</v>
       </c>
-      <c r="BT4" t="s">
+      <c r="BU4" t="s">
         <v>101</v>
       </c>
-      <c r="BU4" t="s">
+      <c r="BV4" t="s">
         <v>102</v>
       </c>
-      <c r="BV4" t="s">
+      <c r="BW4" t="s">
         <v>103</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>104</v>
       </c>
       <c r="BX4">
         <v>4687290.023</v>
       </c>
     </row>
     <row r="6" spans="5:76" x14ac:dyDescent="0.25">
-      <c r="BC6" s="62">
+      <c r="BC6" s="40">
         <v>7512091.7089999998</v>
       </c>
       <c r="BD6">
